--- a/public/reports/payroll.xlsx
+++ b/public/reports/payroll.xlsx
@@ -15,13 +15,773 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="241">
+  <si>
+    <t>P   A   Y   R   O   L   L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  For the period </t>
+  </si>
+  <si>
+    <t>Entity Name : CENTRAL BICOL STATE UNIVERSITY OF AGRICULTURE-SIPOCOT</t>
+  </si>
+  <si>
+    <t>Payroll No. : _______________________</t>
+  </si>
+  <si>
+    <t>Fund Cluster : _______________________________</t>
+  </si>
+  <si>
+    <t>Sheet 1 of  5 Sheets</t>
+  </si>
+  <si>
+    <t>We acknowledge receipt of cash shown opposite our name as full compensation for services rendered for the period covered.</t>
+  </si>
+  <si>
+    <t>ABERGOS, RHEA B.</t>
+  </si>
+  <si>
+    <t>95-035</t>
+  </si>
+  <si>
+    <t>AP1</t>
+  </si>
+  <si>
+    <t>ABLAO, ROBERTO V.</t>
+  </si>
+  <si>
+    <t>95-039</t>
+  </si>
+  <si>
+    <t>ABLAO, EMELDA M.</t>
+  </si>
+  <si>
+    <t>97-042</t>
+  </si>
+  <si>
+    <t>AGOR, MARIA LILIOSA S.</t>
+  </si>
+  <si>
+    <t>15-123</t>
+  </si>
+  <si>
+    <t>INST1</t>
+  </si>
+  <si>
+    <t>AGUIRRE, BASILIO F.</t>
+  </si>
+  <si>
+    <t>97-046</t>
+  </si>
+  <si>
+    <t>AP4</t>
+  </si>
+  <si>
+    <t>ALIBEN, SHERIL A.</t>
+  </si>
+  <si>
+    <t>18-192</t>
+  </si>
+  <si>
+    <t>ALMASCO, ARIEL M.</t>
+  </si>
+  <si>
+    <t>93-021</t>
+  </si>
+  <si>
+    <t>AP3</t>
+  </si>
+  <si>
+    <t>ALMONTE, ERLINDA B.</t>
+  </si>
+  <si>
+    <t>84-013</t>
+  </si>
+  <si>
+    <t>ALMONTE, RICO D.</t>
+  </si>
+  <si>
+    <t>84-011</t>
+  </si>
+  <si>
+    <t>ARAGON, DOUGLAS ANGEL II A.</t>
+  </si>
+  <si>
+    <t>94-024</t>
+  </si>
+  <si>
+    <t>APRO3</t>
+  </si>
+  <si>
+    <t>ARTIAGA, MA. EXPEDITA B.</t>
+  </si>
+  <si>
+    <t>94-025</t>
+  </si>
+  <si>
+    <t>BATOLINAO, AILEEN L.</t>
+  </si>
+  <si>
+    <t>SIP00364</t>
+  </si>
+  <si>
+    <t>BELLERE, ARCE D.</t>
+  </si>
+  <si>
+    <t>16-127</t>
+  </si>
+  <si>
+    <t>BONGALOS, GERRY A.</t>
+  </si>
+  <si>
+    <t>15-129</t>
+  </si>
+  <si>
+    <t>BONITO, ANA MARIA A.</t>
+  </si>
+  <si>
+    <t>94-026</t>
+  </si>
+  <si>
+    <t>APRO5</t>
+  </si>
+  <si>
+    <t>CAMBA, CESAR ARMANDO S.</t>
+  </si>
+  <si>
+    <t>11-065</t>
+  </si>
+  <si>
+    <t>CANDELARIA, JAN MICO D.</t>
+  </si>
+  <si>
+    <t>SIP20-071</t>
+  </si>
+  <si>
+    <t>INST2</t>
+  </si>
+  <si>
+    <t>CANDELARIA, ROMULO M.</t>
+  </si>
+  <si>
+    <t>95-036</t>
+  </si>
+  <si>
+    <t>CASTUERA, ROWEL M.</t>
+  </si>
+  <si>
+    <t>98-052</t>
+  </si>
+  <si>
+    <t>APRO2</t>
+  </si>
+  <si>
+    <t>DE LEON, MARIA AILEEN P.</t>
+  </si>
+  <si>
+    <t>15-179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Total Page 1</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>CERTIFIED :Services have been rendered as stated :</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>CERTIFIED : Supporting documents complete and proper and cash available in the amount of :  ________________</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>APPROVED FOR PAYMENT:</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>CERTIFIED : Each employee whose name appears above have been paid the amount opposite their name.</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>ORS/BURS No:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>JEV No:</t>
+  </si>
+  <si>
+    <t>Sheet 2 of  5 Sheets</t>
+  </si>
+  <si>
+    <t>EBORDA, GERARDO G.</t>
+  </si>
+  <si>
+    <t>94-027</t>
+  </si>
+  <si>
+    <t>EBORDA, MIA N.</t>
+  </si>
+  <si>
+    <t>94-028</t>
+  </si>
+  <si>
+    <t>EINSTEIN, ALBERT  .</t>
+  </si>
+  <si>
+    <t>SIP20-068</t>
+  </si>
+  <si>
+    <t>UNIPROF</t>
+  </si>
+  <si>
+    <t>EJE, SALVACION A.</t>
+  </si>
+  <si>
+    <t>95-038</t>
+  </si>
+  <si>
+    <t>EVANGELIO, CARLOS N.</t>
+  </si>
+  <si>
+    <t>85-017</t>
+  </si>
+  <si>
+    <t>EVANGELIO, CHARLES Z.</t>
+  </si>
+  <si>
+    <t>SIP00267</t>
+  </si>
+  <si>
+    <t>GABON, DENNIS C.</t>
+  </si>
+  <si>
+    <t>09-064</t>
+  </si>
+  <si>
+    <t>AP2</t>
+  </si>
+  <si>
+    <t>GONZALES, JOSEPHINE A.</t>
+  </si>
+  <si>
+    <t>94-032</t>
+  </si>
+  <si>
+    <t>LAMADRID, R-JAY S.</t>
+  </si>
+  <si>
+    <t>15-188</t>
+  </si>
+  <si>
+    <t>LLAGAS, JULIE B.</t>
+  </si>
+  <si>
+    <t>06-060</t>
+  </si>
+  <si>
+    <t>LOSITAÑO, ZEUS M.</t>
+  </si>
+  <si>
+    <t>84-012</t>
+  </si>
+  <si>
+    <t>MACINAS, ODELIO C.</t>
+  </si>
+  <si>
+    <t>94-029</t>
+  </si>
+  <si>
+    <t>MAMANSAG, ABRIL Q.</t>
+  </si>
+  <si>
+    <t>15-150</t>
+  </si>
+  <si>
+    <t>MATAMOROSA, MARIA LIWAYWAY P.</t>
+  </si>
+  <si>
+    <t>94-033</t>
+  </si>
+  <si>
+    <t>METRAN, BENILDA B.</t>
+  </si>
+  <si>
+    <t>85-016</t>
+  </si>
+  <si>
+    <t>MIRANDILLA, FERNANDO O.</t>
+  </si>
+  <si>
+    <t>93-022</t>
+  </si>
+  <si>
+    <t>NAVARRO, MERCY L.</t>
+  </si>
+  <si>
+    <t>97-043</t>
+  </si>
+  <si>
+    <t>NAVARROZA, MYRNA S.</t>
+  </si>
+  <si>
+    <t>94-030</t>
+  </si>
+  <si>
+    <t>INST3</t>
+  </si>
+  <si>
+    <t>NAVARROZA, JOSEPH R.</t>
+  </si>
+  <si>
+    <t>97-049</t>
+  </si>
+  <si>
+    <t>NEGRETE, GRACE L.</t>
+  </si>
+  <si>
+    <t>14-079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Total Page 2</t>
+  </si>
+  <si>
+    <t>Sheet 3 of  5 Sheets</t>
+  </si>
+  <si>
+    <t>NIEVA, LOURDES L.</t>
+  </si>
+  <si>
+    <t>97-044</t>
+  </si>
+  <si>
+    <t>NOCOS, JESUSA M.</t>
+  </si>
+  <si>
+    <t>91-020</t>
+  </si>
+  <si>
+    <t>OCAMPO, DARREL M.</t>
+  </si>
+  <si>
+    <t>15-154</t>
+  </si>
+  <si>
+    <t>PADAYAO, RHEA CATALINA P.</t>
+  </si>
+  <si>
+    <t>12-067</t>
+  </si>
+  <si>
+    <t>PAMADA, EVANGELINA C.</t>
+  </si>
+  <si>
+    <t>05-057</t>
+  </si>
+  <si>
+    <t>PIANSAY, ELSIE EDEN B.</t>
+  </si>
+  <si>
+    <t>84-014</t>
+  </si>
+  <si>
+    <t>PRAMIS, MONERA F.</t>
+  </si>
+  <si>
+    <t>94-031</t>
+  </si>
+  <si>
+    <t>REAPOR, RAQUEL M.</t>
+  </si>
+  <si>
+    <t>12-070</t>
+  </si>
+  <si>
+    <t>APRO1</t>
+  </si>
+  <si>
+    <t>RESURRECCION, TESSIE T.</t>
+  </si>
+  <si>
+    <t>12-069</t>
+  </si>
+  <si>
+    <t>RONQUILLO, FRANCISCO M.</t>
+  </si>
+  <si>
+    <t>97-050</t>
+  </si>
+  <si>
+    <t>SAN AGUSTIN, MARIA JOYCEE C.</t>
+  </si>
+  <si>
+    <t>17-163</t>
+  </si>
+  <si>
+    <t>TAGUM, APPLE JANE B.</t>
+  </si>
+  <si>
+    <t>12-072</t>
+  </si>
+  <si>
+    <t>TAPAR, EMERENCIANA MARICRIS D.</t>
+  </si>
+  <si>
+    <t>05-056</t>
+  </si>
+  <si>
+    <t>TAUPA, GILDA J.</t>
+  </si>
+  <si>
+    <t>11-066</t>
+  </si>
+  <si>
+    <t>TOM, JERRY C.</t>
+  </si>
+  <si>
+    <t>SIP20-069</t>
+  </si>
+  <si>
+    <t>UVAS, EDGARDO B.</t>
+  </si>
+  <si>
+    <t>88-018</t>
+  </si>
+  <si>
+    <t>PROF5</t>
+  </si>
+  <si>
+    <t>ABOGADO, REYMAR C.</t>
+  </si>
+  <si>
+    <t>15-086</t>
+  </si>
+  <si>
+    <t>ADA1</t>
+  </si>
+  <si>
+    <t>ARAGON, MARIA MINERVA D.</t>
+  </si>
+  <si>
+    <t>95-037</t>
+  </si>
+  <si>
+    <t>ADAS3</t>
+  </si>
+  <si>
+    <t>BALANE, FRANCISCO S.</t>
+  </si>
+  <si>
+    <t>94-023</t>
+  </si>
+  <si>
+    <t>SECG1</t>
+  </si>
+  <si>
+    <t>BALIZA, ERNESTO H.</t>
+  </si>
+  <si>
+    <t>96-041</t>
+  </si>
+  <si>
+    <t>ADA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Total Page 3</t>
+  </si>
+  <si>
+    <t>Sheet 4 of  5 Sheets</t>
+  </si>
+  <si>
+    <t>CASULLA, SONIA M.</t>
+  </si>
+  <si>
+    <t>04-054</t>
+  </si>
+  <si>
+    <t>ADA3</t>
+  </si>
+  <si>
+    <t>CASULLA, ORLANDO E.</t>
+  </si>
+  <si>
+    <t>13-073</t>
+  </si>
+  <si>
+    <t>ADA2</t>
+  </si>
+  <si>
+    <t>DELOS SANTOS, IRENEO S.</t>
+  </si>
+  <si>
+    <t>91-019</t>
+  </si>
+  <si>
+    <t>ADOF2</t>
+  </si>
+  <si>
+    <t>DON, DIANNE M.</t>
+  </si>
+  <si>
+    <t>18-172</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>ESMERALDA, ELIZABETH B.</t>
+  </si>
+  <si>
+    <t>15-085</t>
+  </si>
+  <si>
+    <t>FIESTA, LEONEL C.</t>
+  </si>
+  <si>
+    <t>95-034</t>
+  </si>
+  <si>
+    <t>HR, HR H.</t>
+  </si>
+  <si>
+    <t>PAS0001</t>
+  </si>
+  <si>
+    <t>JOVILLANO, LEORO V.</t>
+  </si>
+  <si>
+    <t>13-078</t>
+  </si>
+  <si>
+    <t>LOSITAÑO, VILMA C.</t>
+  </si>
+  <si>
+    <t>09-063</t>
+  </si>
+  <si>
+    <t>ADA6</t>
+  </si>
+  <si>
+    <t>MIDEM, AGNES M.</t>
+  </si>
+  <si>
+    <t>06-059</t>
+  </si>
+  <si>
+    <t>LIB1</t>
+  </si>
+  <si>
+    <t>MILLENA, SANTOS M.</t>
+  </si>
+  <si>
+    <t>97-051</t>
+  </si>
+  <si>
+    <t>PAVERICIO, LUCILA E.</t>
+  </si>
+  <si>
+    <t>81-008</t>
+  </si>
+  <si>
+    <t>ADOF4</t>
+  </si>
+  <si>
+    <t>PEREZ, DOLORES C.</t>
+  </si>
+  <si>
+    <t>97-047</t>
+  </si>
+  <si>
+    <t>SL3</t>
+  </si>
+  <si>
+    <t>RIVERA, RENJENE D.</t>
+  </si>
+  <si>
+    <t>13-075</t>
+  </si>
+  <si>
+    <t>ADA5</t>
+  </si>
+  <si>
+    <t>SAMARISTA, MECHILL C.</t>
+  </si>
+  <si>
+    <t>09-062</t>
+  </si>
+  <si>
+    <t>SAMARISTA, ZANDRO A.</t>
+  </si>
+  <si>
+    <t>13-074</t>
+  </si>
+  <si>
+    <t>TIBI, DANIEL M.</t>
+  </si>
+  <si>
+    <t>95-040</t>
+  </si>
+  <si>
+    <t>VILLAFUERTE, MARY FRANCESCA N.</t>
+  </si>
+  <si>
+    <t>13-076</t>
+  </si>
+  <si>
+    <t>NURS2</t>
+  </si>
+  <si>
+    <t>VILLAFUERTE, FRANK VINCENT B.</t>
+  </si>
+  <si>
+    <t>13-077</t>
+  </si>
+  <si>
+    <t>ALMASCO, ABE-GAEL M.</t>
+  </si>
+  <si>
+    <t>18-168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Total Page 4</t>
+  </si>
+  <si>
+    <t>Sheet 5 of  5 Sheets</t>
+  </si>
+  <si>
+    <t>ALMONTE, MERCY M.</t>
+  </si>
+  <si>
+    <t>16-131</t>
+  </si>
+  <si>
+    <t>BELMONTE, ELAINE L.</t>
+  </si>
+  <si>
+    <t>16-140</t>
+  </si>
+  <si>
+    <t>CARCIDO, VINCE CLEMENCE M.</t>
+  </si>
+  <si>
+    <t>16-139</t>
+  </si>
+  <si>
+    <t>ECHIPARE, ALDIN D.</t>
+  </si>
+  <si>
+    <t>16-252</t>
+  </si>
+  <si>
+    <t>JUEGO, GINEO B.</t>
+  </si>
+  <si>
+    <t>15-143</t>
+  </si>
+  <si>
+    <t>MACHADO, SONNY D.</t>
+  </si>
+  <si>
+    <t>15-148</t>
+  </si>
+  <si>
+    <t>MIRANDILLA, JHUNAR A.</t>
+  </si>
+  <si>
+    <t>15-151</t>
+  </si>
+  <si>
+    <t>PAITAN, AILEEN F.</t>
+  </si>
+  <si>
+    <t>15-140</t>
+  </si>
+  <si>
+    <t>PEÑANO, JOSEPH V.</t>
+  </si>
+  <si>
+    <t>15-185</t>
+  </si>
+  <si>
+    <t>SAPE, SHAYNE CLEO C.</t>
+  </si>
+  <si>
+    <t>15-160</t>
+  </si>
+  <si>
+    <t>SERVIDAD, NEIL JOHN R.</t>
+  </si>
+  <si>
+    <t>17-145</t>
+  </si>
+  <si>
+    <t>TAUPA, ALLAN D.</t>
+  </si>
+  <si>
+    <t>18-193</t>
+  </si>
+  <si>
+    <t>TAYA, LELIA C.</t>
+  </si>
+  <si>
+    <t>15-117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Total Page 5</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="7">
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
+    </font>
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -29,7 +789,25 @@
       <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,15 +821,133 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border/>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -352,15 +1248,2622 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:Z179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="V175" sqref="V175:Z179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr customHeight="true" defaultRowHeight="12" defaultColWidth="12" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="true" style="0"/>
+    <col min="2" max="2" width="29" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9" customWidth="true" style="0"/>
+    <col min="4" max="4" width="8" customWidth="true" style="0"/>
+    <col min="5" max="5" width="4" customWidth="true" style="0"/>
+    <col min="6" max="6" width="8" customWidth="true" style="0"/>
+    <col min="11" max="11" width="4" customWidth="true" style="0"/>
+    <col min="12" max="12" width="8" customWidth="true" style="0"/>
+    <col min="16" max="16" width="4" customWidth="true" style="0"/>
+    <col min="17" max="17" width="8" customWidth="true" style="0"/>
+    <col min="22" max="22" width="4" customWidth="true" style="0"/>
+    <col min="23" max="23" width="10" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" customHeight="1" ht="23">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" customHeight="1" ht="20">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" customHeight="1" ht="9"/>
+    <row r="4" spans="1:26" customHeight="1" ht="14">
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" customHeight="1" ht="14">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" customHeight="1" ht="6"/>
+    <row r="12" spans="1:26">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="5">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="5">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="5">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="5">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="5">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="5">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="5">
+        <v>9</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="5">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="5">
+        <v>11</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="5">
+        <v>12</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="5">
+        <v>13</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="5">
+        <v>14</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="5">
+        <v>15</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="5">
+        <v>16</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="5">
+        <v>17</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="5">
+        <v>18</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="5">
+        <v>19</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="5">
+        <v>20</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q33" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="15"/>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34"/>
+      <c r="D34" s="16"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="10"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="10"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34" s="16"/>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35"/>
+      <c r="D35" s="16"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="10"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="10"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35" s="16"/>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36"/>
+      <c r="D36" s="16"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="10"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="10"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36" s="16"/>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="17"/>
+    </row>
+    <row r="38" spans="1:26" customHeight="1" ht="23">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" customHeight="1" ht="20">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" customHeight="1" ht="9"/>
+    <row r="41" spans="1:26" customHeight="1" ht="14">
+      <c r="B41" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" customHeight="1" ht="14">
+      <c r="B42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
+      <c r="B43" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" customHeight="1" ht="6"/>
+    <row r="49" spans="1:26">
+      <c r="A49" s="5">
+        <v>21</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:26">
+      <c r="A50" s="5">
+        <v>22</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="5">
+        <v>23</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="5">
+        <v>24</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" s="5">
+        <v>25</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:26">
+      <c r="A54" s="5">
+        <v>26</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:26">
+      <c r="A55" s="5">
+        <v>27</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:26">
+      <c r="A56" s="5">
+        <v>28</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" s="5">
+        <v>29</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="5">
+        <v>30</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59" s="5">
+        <v>31</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:26">
+      <c r="A60" s="5">
+        <v>32</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:26">
+      <c r="A61" s="5">
+        <v>33</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:26">
+      <c r="A62" s="5">
+        <v>34</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:26">
+      <c r="A63" s="5">
+        <v>35</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:26">
+      <c r="A64" s="5">
+        <v>36</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:26">
+      <c r="A65" s="5">
+        <v>37</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:26">
+      <c r="A66" s="5">
+        <v>38</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:26">
+      <c r="A67" s="5">
+        <v>39</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:26">
+      <c r="A68" s="5">
+        <v>40</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
+      <c r="A70" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L70" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q70" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="15"/>
+      <c r="V70" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W70" s="13"/>
+      <c r="X70" s="13"/>
+      <c r="Y70" s="13"/>
+      <c r="Z70" s="15"/>
+    </row>
+    <row r="71" spans="1:26">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71"/>
+      <c r="D71" s="16"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="10"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="10"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71" s="16"/>
+    </row>
+    <row r="72" spans="1:26">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72"/>
+      <c r="D72" s="16"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="10"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="10"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72" s="16"/>
+    </row>
+    <row r="73" spans="1:26">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73"/>
+      <c r="D73" s="16"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="10"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="10"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73" s="16"/>
+    </row>
+    <row r="74" spans="1:26">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="14"/>
+      <c r="T74" s="14"/>
+      <c r="U74" s="17"/>
+      <c r="V74" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="W74" s="14"/>
+      <c r="X74" s="14"/>
+      <c r="Y74" s="14"/>
+      <c r="Z74" s="17"/>
+    </row>
+    <row r="75" spans="1:26" customHeight="1" ht="23">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" customHeight="1" ht="20">
+      <c r="A76" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" customHeight="1" ht="9"/>
+    <row r="78" spans="1:26" customHeight="1" ht="14">
+      <c r="B78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q78" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" customHeight="1" ht="14">
+      <c r="B79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q79" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
+      <c r="B80" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" customHeight="1" ht="6"/>
+    <row r="86" spans="1:26">
+      <c r="A86" s="5">
+        <v>41</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:26">
+      <c r="A87" s="5">
+        <v>42</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:26">
+      <c r="A88" s="5">
+        <v>43</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:26">
+      <c r="A89" s="5">
+        <v>44</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:26">
+      <c r="A90" s="5">
+        <v>45</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:26">
+      <c r="A91" s="5">
+        <v>46</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:26">
+      <c r="A92" s="5">
+        <v>47</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="1:26">
+      <c r="A93" s="5">
+        <v>48</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="1:26">
+      <c r="A94" s="5">
+        <v>49</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:26">
+      <c r="A95" s="5">
+        <v>50</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:26">
+      <c r="A96" s="5">
+        <v>51</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="1:26">
+      <c r="A97" s="5">
+        <v>52</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:26">
+      <c r="A98" s="5">
+        <v>53</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:26">
+      <c r="A99" s="5">
+        <v>54</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:26">
+      <c r="A100" s="5">
+        <v>55</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E100" s="7"/>
+    </row>
+    <row r="101" spans="1:26">
+      <c r="A101" s="5">
+        <v>56</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="1:26">
+      <c r="A102" s="5">
+        <v>57</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="1:26">
+      <c r="A103" s="5">
+        <v>58</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E103" s="7"/>
+    </row>
+    <row r="104" spans="1:26">
+      <c r="A104" s="5">
+        <v>59</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E104" s="7"/>
+    </row>
+    <row r="105" spans="1:26">
+      <c r="A105" s="5">
+        <v>60</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E105" s="7"/>
+    </row>
+    <row r="106" spans="1:26">
+      <c r="A106" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26">
+      <c r="A107" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F107" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L107" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+      <c r="O107" s="15"/>
+      <c r="P107" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q107" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13"/>
+      <c r="U107" s="15"/>
+      <c r="V107" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W107" s="13"/>
+      <c r="X107" s="13"/>
+      <c r="Y107" s="13"/>
+      <c r="Z107" s="15"/>
+    </row>
+    <row r="108" spans="1:26">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108"/>
+      <c r="D108" s="16"/>
+      <c r="E108"/>
+      <c r="F108"/>
+      <c r="G108"/>
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="10"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108" s="16"/>
+      <c r="P108" s="10"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+      <c r="S108"/>
+      <c r="T108"/>
+      <c r="U108" s="16"/>
+      <c r="V108" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="W108"/>
+      <c r="X108"/>
+      <c r="Y108"/>
+      <c r="Z108" s="16"/>
+    </row>
+    <row r="109" spans="1:26">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109"/>
+      <c r="D109" s="16"/>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="10"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109" s="16"/>
+      <c r="P109" s="10"/>
+      <c r="Q109"/>
+      <c r="R109"/>
+      <c r="S109"/>
+      <c r="T109"/>
+      <c r="U109" s="16"/>
+      <c r="V109" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="W109"/>
+      <c r="X109"/>
+      <c r="Y109"/>
+      <c r="Z109" s="16"/>
+    </row>
+    <row r="110" spans="1:26">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110"/>
+      <c r="D110" s="16"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="10"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110" s="16"/>
+      <c r="P110" s="10"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110"/>
+      <c r="U110" s="16"/>
+      <c r="V110" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="W110"/>
+      <c r="X110"/>
+      <c r="Y110"/>
+      <c r="Z110" s="16"/>
+    </row>
+    <row r="111" spans="1:26">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="14"/>
+      <c r="N111" s="14"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="11"/>
+      <c r="Q111" s="14"/>
+      <c r="R111" s="14"/>
+      <c r="S111" s="14"/>
+      <c r="T111" s="14"/>
+      <c r="U111" s="17"/>
+      <c r="V111" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="W111" s="14"/>
+      <c r="X111" s="14"/>
+      <c r="Y111" s="14"/>
+      <c r="Z111" s="17"/>
+    </row>
+    <row r="112" spans="1:26" customHeight="1" ht="23">
+      <c r="A112" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26" customHeight="1" ht="20">
+      <c r="A113" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26" customHeight="1" ht="9"/>
+    <row r="115" spans="1:26" customHeight="1" ht="14">
+      <c r="B115" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q115" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26" customHeight="1" ht="14">
+      <c r="B116" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q116" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26">
+      <c r="B117" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26" customHeight="1" ht="6"/>
+    <row r="123" spans="1:26">
+      <c r="A123" s="5">
+        <v>61</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E123" s="7"/>
+    </row>
+    <row r="124" spans="1:26">
+      <c r="A124" s="5">
+        <v>62</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E124" s="7"/>
+    </row>
+    <row r="125" spans="1:26">
+      <c r="A125" s="5">
+        <v>63</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E125" s="7"/>
+    </row>
+    <row r="126" spans="1:26">
+      <c r="A126" s="5">
+        <v>64</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E126" s="7"/>
+    </row>
+    <row r="127" spans="1:26">
+      <c r="A127" s="5">
+        <v>65</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E127" s="7"/>
+    </row>
+    <row r="128" spans="1:26">
+      <c r="A128" s="5">
+        <v>66</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E128" s="7"/>
+    </row>
+    <row r="129" spans="1:26">
+      <c r="A129" s="5">
+        <v>67</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D129" s="6"/>
+      <c r="E129" s="7"/>
+    </row>
+    <row r="130" spans="1:26">
+      <c r="A130" s="5">
+        <v>68</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E130" s="7"/>
+    </row>
+    <row r="131" spans="1:26">
+      <c r="A131" s="5">
+        <v>69</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E131" s="7"/>
+    </row>
+    <row r="132" spans="1:26">
+      <c r="A132" s="5">
+        <v>70</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="E132" s="7"/>
+    </row>
+    <row r="133" spans="1:26">
+      <c r="A133" s="5">
+        <v>71</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E133" s="7"/>
+    </row>
+    <row r="134" spans="1:26">
+      <c r="A134" s="5">
+        <v>72</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E134" s="7"/>
+    </row>
+    <row r="135" spans="1:26">
+      <c r="A135" s="5">
+        <v>73</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E135" s="7"/>
+    </row>
+    <row r="136" spans="1:26">
+      <c r="A136" s="5">
+        <v>74</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E136" s="7"/>
+    </row>
+    <row r="137" spans="1:26">
+      <c r="A137" s="5">
+        <v>75</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E137" s="7"/>
+    </row>
+    <row r="138" spans="1:26">
+      <c r="A138" s="5">
+        <v>76</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E138" s="7"/>
+    </row>
+    <row r="139" spans="1:26">
+      <c r="A139" s="5">
+        <v>77</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E139" s="7"/>
+    </row>
+    <row r="140" spans="1:26">
+      <c r="A140" s="5">
+        <v>78</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E140" s="7"/>
+    </row>
+    <row r="141" spans="1:26">
+      <c r="A141" s="5">
+        <v>79</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E141" s="7"/>
+    </row>
+    <row r="142" spans="1:26">
+      <c r="A142" s="5">
+        <v>80</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E142" s="7"/>
+    </row>
+    <row r="143" spans="1:26">
+      <c r="A143" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26">
+      <c r="A144" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B144" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C144" s="13"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F144" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G144" s="13"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L144" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M144" s="13"/>
+      <c r="N144" s="13"/>
+      <c r="O144" s="15"/>
+      <c r="P144" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q144" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="R144" s="13"/>
+      <c r="S144" s="13"/>
+      <c r="T144" s="13"/>
+      <c r="U144" s="15"/>
+      <c r="V144" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W144" s="13"/>
+      <c r="X144" s="13"/>
+      <c r="Y144" s="13"/>
+      <c r="Z144" s="15"/>
+    </row>
+    <row r="145" spans="1:26">
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="C145"/>
+      <c r="D145" s="16"/>
+      <c r="E145"/>
+      <c r="F145"/>
+      <c r="G145"/>
+      <c r="H145"/>
+      <c r="I145"/>
+      <c r="J145" s="16"/>
+      <c r="K145" s="10"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145" s="16"/>
+      <c r="P145" s="10"/>
+      <c r="Q145"/>
+      <c r="R145"/>
+      <c r="S145"/>
+      <c r="T145"/>
+      <c r="U145" s="16"/>
+      <c r="V145" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="W145"/>
+      <c r="X145"/>
+      <c r="Y145"/>
+      <c r="Z145" s="16"/>
+    </row>
+    <row r="146" spans="1:26">
+      <c r="A146" s="10"/>
+      <c r="B146" s="10"/>
+      <c r="C146"/>
+      <c r="D146" s="16"/>
+      <c r="E146"/>
+      <c r="F146"/>
+      <c r="G146"/>
+      <c r="H146"/>
+      <c r="I146"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="10"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146" s="16"/>
+      <c r="P146" s="10"/>
+      <c r="Q146"/>
+      <c r="R146"/>
+      <c r="S146"/>
+      <c r="T146"/>
+      <c r="U146" s="16"/>
+      <c r="V146" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="W146"/>
+      <c r="X146"/>
+      <c r="Y146"/>
+      <c r="Z146" s="16"/>
+    </row>
+    <row r="147" spans="1:26">
+      <c r="A147" s="10"/>
+      <c r="B147" s="10"/>
+      <c r="C147"/>
+      <c r="D147" s="16"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147" s="16"/>
+      <c r="K147" s="10"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147" s="16"/>
+      <c r="P147" s="10"/>
+      <c r="Q147"/>
+      <c r="R147"/>
+      <c r="S147"/>
+      <c r="T147"/>
+      <c r="U147" s="16"/>
+      <c r="V147" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="W147"/>
+      <c r="X147"/>
+      <c r="Y147"/>
+      <c r="Z147" s="16"/>
+    </row>
+    <row r="148" spans="1:26">
+      <c r="A148" s="11"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
+      <c r="J148" s="17"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="14"/>
+      <c r="M148" s="14"/>
+      <c r="N148" s="14"/>
+      <c r="O148" s="17"/>
+      <c r="P148" s="11"/>
+      <c r="Q148" s="14"/>
+      <c r="R148" s="14"/>
+      <c r="S148" s="14"/>
+      <c r="T148" s="14"/>
+      <c r="U148" s="17"/>
+      <c r="V148" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="W148" s="14"/>
+      <c r="X148" s="14"/>
+      <c r="Y148" s="14"/>
+      <c r="Z148" s="17"/>
+    </row>
+    <row r="149" spans="1:26" customHeight="1" ht="23">
+      <c r="A149" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26" customHeight="1" ht="20">
+      <c r="A150" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26" customHeight="1" ht="9"/>
+    <row r="152" spans="1:26" customHeight="1" ht="14">
+      <c r="B152" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q152" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:26" customHeight="1" ht="14">
+      <c r="B153" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q153" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="154" spans="1:26">
+      <c r="B154" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:26" customHeight="1" ht="6"/>
+    <row r="160" spans="1:26">
+      <c r="A160" s="5">
+        <v>81</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160" s="7"/>
+    </row>
+    <row r="161" spans="1:26">
+      <c r="A161" s="5">
+        <v>82</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E161" s="7"/>
+    </row>
+    <row r="162" spans="1:26">
+      <c r="A162" s="5">
+        <v>83</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" s="7"/>
+    </row>
+    <row r="163" spans="1:26">
+      <c r="A163" s="5">
+        <v>84</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E163" s="7"/>
+    </row>
+    <row r="164" spans="1:26">
+      <c r="A164" s="5">
+        <v>85</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E164" s="7"/>
+    </row>
+    <row r="165" spans="1:26">
+      <c r="A165" s="5">
+        <v>86</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E165" s="7"/>
+    </row>
+    <row r="166" spans="1:26">
+      <c r="A166" s="5">
+        <v>87</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E166" s="7"/>
+    </row>
+    <row r="167" spans="1:26">
+      <c r="A167" s="5">
+        <v>88</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167" s="7"/>
+    </row>
+    <row r="168" spans="1:26">
+      <c r="A168" s="5">
+        <v>89</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E168" s="7"/>
+    </row>
+    <row r="169" spans="1:26">
+      <c r="A169" s="5">
+        <v>90</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E169" s="7"/>
+    </row>
+    <row r="170" spans="1:26">
+      <c r="A170" s="5">
+        <v>91</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E170" s="7"/>
+    </row>
+    <row r="171" spans="1:26">
+      <c r="A171" s="5">
+        <v>92</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D171" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E171" s="7"/>
+    </row>
+    <row r="172" spans="1:26">
+      <c r="A172" s="5">
+        <v>93</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D172" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E172" s="7"/>
+    </row>
+    <row r="173" spans="1:26">
+      <c r="A173" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="174" spans="1:26">
+      <c r="A174" s="6"/>
+    </row>
+    <row r="175" spans="1:26">
+      <c r="A175" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B175" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C175" s="13"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F175" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G175" s="13"/>
+      <c r="H175" s="13"/>
+      <c r="I175" s="13"/>
+      <c r="J175" s="15"/>
+      <c r="K175" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L175" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M175" s="13"/>
+      <c r="N175" s="13"/>
+      <c r="O175" s="15"/>
+      <c r="P175" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q175" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="R175" s="13"/>
+      <c r="S175" s="13"/>
+      <c r="T175" s="13"/>
+      <c r="U175" s="15"/>
+      <c r="V175" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W175" s="13"/>
+      <c r="X175" s="13"/>
+      <c r="Y175" s="13"/>
+      <c r="Z175" s="15"/>
+    </row>
+    <row r="176" spans="1:26">
+      <c r="A176" s="10"/>
+      <c r="B176" s="10"/>
+      <c r="C176"/>
+      <c r="D176" s="16"/>
+      <c r="E176"/>
+      <c r="F176"/>
+      <c r="G176"/>
+      <c r="H176"/>
+      <c r="I176"/>
+      <c r="J176" s="16"/>
+      <c r="K176" s="10"/>
+      <c r="L176"/>
+      <c r="M176"/>
+      <c r="N176"/>
+      <c r="O176" s="16"/>
+      <c r="P176" s="10"/>
+      <c r="Q176"/>
+      <c r="R176"/>
+      <c r="S176"/>
+      <c r="T176"/>
+      <c r="U176" s="16"/>
+      <c r="V176" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="W176"/>
+      <c r="X176"/>
+      <c r="Y176"/>
+      <c r="Z176" s="16"/>
+    </row>
+    <row r="177" spans="1:26">
+      <c r="A177" s="10"/>
+      <c r="B177" s="10"/>
+      <c r="C177"/>
+      <c r="D177" s="16"/>
+      <c r="E177"/>
+      <c r="F177"/>
+      <c r="G177"/>
+      <c r="H177"/>
+      <c r="I177"/>
+      <c r="J177" s="16"/>
+      <c r="K177" s="10"/>
+      <c r="L177"/>
+      <c r="M177"/>
+      <c r="N177"/>
+      <c r="O177" s="16"/>
+      <c r="P177" s="10"/>
+      <c r="Q177"/>
+      <c r="R177"/>
+      <c r="S177"/>
+      <c r="T177"/>
+      <c r="U177" s="16"/>
+      <c r="V177" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="W177"/>
+      <c r="X177"/>
+      <c r="Y177"/>
+      <c r="Z177" s="16"/>
+    </row>
+    <row r="178" spans="1:26">
+      <c r="A178" s="10"/>
+      <c r="B178" s="10"/>
+      <c r="C178"/>
+      <c r="D178" s="16"/>
+      <c r="E178"/>
+      <c r="F178"/>
+      <c r="G178"/>
+      <c r="H178"/>
+      <c r="I178"/>
+      <c r="J178" s="16"/>
+      <c r="K178" s="10"/>
+      <c r="L178"/>
+      <c r="M178"/>
+      <c r="N178"/>
+      <c r="O178" s="16"/>
+      <c r="P178" s="10"/>
+      <c r="Q178"/>
+      <c r="R178"/>
+      <c r="S178"/>
+      <c r="T178"/>
+      <c r="U178" s="16"/>
+      <c r="V178" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="W178"/>
+      <c r="X178"/>
+      <c r="Y178"/>
+      <c r="Z178" s="16"/>
+    </row>
+    <row r="179" spans="1:26">
+      <c r="A179" s="11"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="14"/>
+      <c r="F179" s="14"/>
+      <c r="G179" s="14"/>
+      <c r="H179" s="14"/>
+      <c r="I179" s="14"/>
+      <c r="J179" s="17"/>
+      <c r="K179" s="11"/>
+      <c r="L179" s="14"/>
+      <c r="M179" s="14"/>
+      <c r="N179" s="14"/>
+      <c r="O179" s="17"/>
+      <c r="P179" s="11"/>
+      <c r="Q179" s="14"/>
+      <c r="R179" s="14"/>
+      <c r="S179" s="14"/>
+      <c r="T179" s="14"/>
+      <c r="U179" s="17"/>
+      <c r="V179" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="W179" s="14"/>
+      <c r="X179" s="14"/>
+      <c r="Y179" s="14"/>
+      <c r="Z179" s="17"/>
+    </row>
+  </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="F33:J34"/>
+    <mergeCell ref="L33:O34"/>
+    <mergeCell ref="Q33:U34"/>
+    <mergeCell ref="V34:W34"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="V36:W36"/>
+    <mergeCell ref="V37:W37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="B41:I41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="B70:D71"/>
+    <mergeCell ref="F70:J71"/>
+    <mergeCell ref="L70:O71"/>
+    <mergeCell ref="Q70:U71"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="V72:W72"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="B78:I78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="Q78:S78"/>
+    <mergeCell ref="Q79:S79"/>
+    <mergeCell ref="B80:N80"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="E92:F92"/>
+    <mergeCell ref="E93:F93"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E96:F96"/>
+    <mergeCell ref="E97:F97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="E99:F99"/>
+    <mergeCell ref="E100:F100"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E103:F103"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="E105:F105"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="F107:J108"/>
+    <mergeCell ref="L107:O108"/>
+    <mergeCell ref="Q107:U108"/>
+    <mergeCell ref="V108:W108"/>
+    <mergeCell ref="V109:W109"/>
+    <mergeCell ref="V110:W110"/>
+    <mergeCell ref="V111:W111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="B115:I115"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="Q115:S115"/>
+    <mergeCell ref="Q116:S116"/>
+    <mergeCell ref="B117:N117"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="E125:F125"/>
+    <mergeCell ref="E126:F126"/>
+    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="E141:F141"/>
+    <mergeCell ref="E142:F142"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="B144:D145"/>
+    <mergeCell ref="F144:J145"/>
+    <mergeCell ref="L144:O145"/>
+    <mergeCell ref="Q144:U145"/>
+    <mergeCell ref="V145:W145"/>
+    <mergeCell ref="V146:W146"/>
+    <mergeCell ref="V147:W147"/>
+    <mergeCell ref="V148:W148"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="A150:D150"/>
+    <mergeCell ref="B152:I152"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="Q152:S152"/>
+    <mergeCell ref="Q153:S153"/>
+    <mergeCell ref="B154:N154"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="A173:D173"/>
+    <mergeCell ref="A174:D174"/>
+    <mergeCell ref="B175:D176"/>
+    <mergeCell ref="F175:J176"/>
+    <mergeCell ref="L175:O176"/>
+    <mergeCell ref="Q175:U176"/>
+    <mergeCell ref="V176:W176"/>
+    <mergeCell ref="V177:W177"/>
+    <mergeCell ref="V178:W178"/>
+    <mergeCell ref="V179:W179"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="1" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" scale="110" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/public/reports/payroll.xlsx
+++ b/public/reports/payroll.xlsx
@@ -92,16 +92,16 @@
     <t>AP3</t>
   </si>
   <si>
+    <t>ALMONTE, RICO D.</t>
+  </si>
+  <si>
+    <t>84-011</t>
+  </si>
+  <si>
     <t>ALMONTE, ERLINDA B.</t>
   </si>
   <si>
     <t>84-013</t>
-  </si>
-  <si>
-    <t>ALMONTE, RICO D.</t>
-  </si>
-  <si>
-    <t>84-011</t>
   </si>
   <si>
     <t>ARAGON, DOUGLAS ANGEL II A.</t>
@@ -1419,7 +1419,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E19" s="7"/>
     </row>
@@ -1434,7 +1434,7 @@
         <v>28</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E20" s="7"/>
     </row>

--- a/public/reports/payroll.xlsx
+++ b/public/reports/payroll.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="245">
   <si>
     <t>P   A   Y   R   O   L   L</t>
   </si>
@@ -38,6 +38,18 @@
     <t>We acknowledge receipt of cash shown opposite our name as full compensation for services rendered for the period covered.</t>
   </si>
   <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
     <t>ABERGOS, RHEA B.</t>
   </si>
   <si>
@@ -251,18 +263,18 @@
     <t>95-038</t>
   </si>
   <si>
+    <t>EVANGELIO, CHARLES Z.</t>
+  </si>
+  <si>
+    <t>SIP00267</t>
+  </si>
+  <si>
     <t>EVANGELIO, CARLOS N.</t>
   </si>
   <si>
     <t>85-017</t>
   </si>
   <si>
-    <t>EVANGELIO, CHARLES Z.</t>
-  </si>
-  <si>
-    <t>SIP00267</t>
-  </si>
-  <si>
     <t>GABON, DENNIS C.</t>
   </si>
   <si>
@@ -614,16 +626,16 @@
     <t>ADA5</t>
   </si>
   <si>
+    <t>SAMARISTA, ZANDRO A.</t>
+  </si>
+  <si>
+    <t>13-074</t>
+  </si>
+  <si>
     <t>SAMARISTA, MECHILL C.</t>
   </si>
   <si>
     <t>09-062</t>
-  </si>
-  <si>
-    <t>SAMARISTA, ZANDRO A.</t>
-  </si>
-  <si>
-    <t>13-074</t>
   </si>
   <si>
     <t>TIBI, DANIEL M.</t>
@@ -896,10 +908,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1303,351 +1315,366 @@
       </c>
     </row>
     <row r="7" spans="1:26" customHeight="1" ht="6"/>
+    <row r="8" spans="1:26">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="6">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="6">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="6">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="6">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="6">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="6">
         <v>8</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="B19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="6">
         <v>9</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="5">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="6">
         <v>10</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="B21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="6">
         <v>11</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="5">
-        <v>3</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="7"/>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="6">
         <v>12</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="5">
-        <v>4</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="6">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="6">
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="B25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="6">
         <v>15</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="B26" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="6">
         <v>16</v>
       </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="5">
-        <v>5</v>
-      </c>
-      <c r="B16" s="6" t="s">
+      <c r="B27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="6">
         <v>17</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="B28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="6">
         <v>18</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="B29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="6">
         <v>19</v>
       </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="5">
-        <v>6</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="B30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="6">
         <v>20</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="5">
-        <v>7</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="5">
-        <v>8</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="5">
-        <v>9</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="5">
-        <v>10</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="5">
-        <v>11</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" s="5">
-        <v>12</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" s="5">
-        <v>13</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:26">
-      <c r="A25" s="5">
-        <v>14</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="A26" s="5">
-        <v>15</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:26">
-      <c r="A27" s="5">
-        <v>16</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:26">
-      <c r="A28" s="5">
-        <v>17</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:26">
-      <c r="A29" s="5">
-        <v>18</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:26">
-      <c r="A30" s="5">
-        <v>19</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:26">
-      <c r="A31" s="5">
+      <c r="B31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="15"/>
       <c r="E33" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G33" s="13"/>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="15"/>
       <c r="K33" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="15"/>
       <c r="P33" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q33" s="20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
       <c r="U33" s="15"/>
       <c r="V33" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="W33" s="13"/>
       <c r="X33" s="13"/>
@@ -1677,7 +1704,7 @@
       <c r="T34"/>
       <c r="U34" s="16"/>
       <c r="V34" s="21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="W34"/>
       <c r="X34"/>
@@ -1707,7 +1734,7 @@
       <c r="T35"/>
       <c r="U35" s="16"/>
       <c r="V35" s="21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="W35"/>
       <c r="X35"/>
@@ -1737,7 +1764,7 @@
       <c r="T36"/>
       <c r="U36" s="16"/>
       <c r="V36" s="21" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="W36"/>
       <c r="X36"/>
@@ -1767,7 +1794,7 @@
       <c r="T37" s="14"/>
       <c r="U37" s="17"/>
       <c r="V37" s="22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="W37" s="14"/>
       <c r="X37" s="14"/>
@@ -1798,7 +1825,7 @@
         <v>4</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:26">
@@ -1808,350 +1835,350 @@
     </row>
     <row r="44" spans="1:26" customHeight="1" ht="6"/>
     <row r="49" spans="1:26">
-      <c r="A49" s="5">
+      <c r="A49" s="6">
         <v>21</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>19</v>
+      <c r="B49" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:26">
-      <c r="A50" s="5">
+      <c r="A50" s="6">
         <v>22</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="B50" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:26">
+      <c r="A51" s="6">
+        <v>23</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:26">
+      <c r="A52" s="6">
         <v>24</v>
       </c>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="1:26">
-      <c r="A51" s="5">
+      <c r="B52" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:26">
+      <c r="A53" s="6">
+        <v>25</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:26">
-      <c r="A52" s="5">
-        <v>24</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="1:26">
-      <c r="A53" s="5">
-        <v>25</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:26">
-      <c r="A54" s="5">
+      <c r="A54" s="6">
         <v>26</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>19</v>
+      <c r="B54" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:26">
-      <c r="A55" s="5">
+      <c r="A55" s="6">
         <v>27</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>84</v>
+      <c r="B55" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:26">
-      <c r="A56" s="5">
+      <c r="A56" s="6">
         <v>28</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" s="6" t="s">
+      <c r="B56" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:26">
+      <c r="A57" s="6">
+        <v>29</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:26">
+      <c r="A58" s="6">
+        <v>30</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:26">
+      <c r="A59" s="6">
         <v>31</v>
       </c>
-      <c r="E56" s="7"/>
-    </row>
-    <row r="57" spans="1:26">
-      <c r="A57" s="5">
-        <v>29</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:26">
-      <c r="A58" s="5">
-        <v>30</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:26">
-      <c r="A59" s="5">
-        <v>31</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>19</v>
+      <c r="B59" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E59" s="7"/>
     </row>
     <row r="60" spans="1:26">
-      <c r="A60" s="5">
+      <c r="A60" s="6">
         <v>32</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>24</v>
+      <c r="B60" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:26">
-      <c r="A61" s="5">
+      <c r="A61" s="6">
         <v>33</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>16</v>
+      <c r="B61" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:26">
-      <c r="A62" s="5">
+      <c r="A62" s="6">
         <v>34</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>42</v>
+      <c r="B62" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E62" s="7"/>
     </row>
     <row r="63" spans="1:26">
-      <c r="A63" s="5">
+      <c r="A63" s="6">
         <v>35</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>19</v>
+      <c r="B63" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="E63" s="7"/>
     </row>
     <row r="64" spans="1:26">
-      <c r="A64" s="5">
+      <c r="A64" s="6">
         <v>36</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64" s="6" t="s">
-        <v>47</v>
+      <c r="B64" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:26">
-      <c r="A65" s="5">
+      <c r="A65" s="6">
         <v>37</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>24</v>
+      <c r="B65" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="E65" s="7"/>
     </row>
     <row r="66" spans="1:26">
-      <c r="A66" s="5">
+      <c r="A66" s="6">
         <v>38</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>107</v>
+      <c r="B66" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:26">
-      <c r="A67" s="5">
+      <c r="A67" s="6">
         <v>39</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>9</v>
+      <c r="B67" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E67" s="7"/>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="5">
+      <c r="A68" s="6">
         <v>40</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" s="6" t="s">
+      <c r="B68" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>107</v>
       </c>
       <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:26">
       <c r="A69" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:26">
       <c r="A70" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="15"/>
       <c r="E70" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G70" s="13"/>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="15"/>
       <c r="K70" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
       <c r="O70" s="15"/>
       <c r="P70" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q70" s="20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
       <c r="T70" s="13"/>
       <c r="U70" s="15"/>
       <c r="V70" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="W70" s="13"/>
       <c r="X70" s="13"/>
@@ -2181,7 +2208,7 @@
       <c r="T71"/>
       <c r="U71" s="16"/>
       <c r="V71" s="21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="W71"/>
       <c r="X71"/>
@@ -2211,7 +2238,7 @@
       <c r="T72"/>
       <c r="U72" s="16"/>
       <c r="V72" s="21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="W72"/>
       <c r="X72"/>
@@ -2241,7 +2268,7 @@
       <c r="T73"/>
       <c r="U73" s="16"/>
       <c r="V73" s="21" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="W73"/>
       <c r="X73"/>
@@ -2271,7 +2298,7 @@
       <c r="T74" s="14"/>
       <c r="U74" s="17"/>
       <c r="V74" s="22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="W74" s="14"/>
       <c r="X74" s="14"/>
@@ -2302,7 +2329,7 @@
         <v>4</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:26">
@@ -2312,350 +2339,350 @@
     </row>
     <row r="81" spans="1:26" customHeight="1" ht="6"/>
     <row r="86" spans="1:26">
-      <c r="A86" s="5">
+      <c r="A86" s="6">
         <v>41</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D86" s="6" t="s">
+      <c r="B86" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" s="7"/>
+    </row>
+    <row r="87" spans="1:26">
+      <c r="A87" s="6">
         <v>42</v>
       </c>
-      <c r="E86" s="7"/>
-    </row>
-    <row r="87" spans="1:26">
-      <c r="A87" s="5">
-        <v>42</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>84</v>
+      <c r="B87" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:26">
-      <c r="A88" s="5">
+      <c r="A88" s="6">
         <v>43</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>16</v>
+      <c r="B88" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:26">
-      <c r="A89" s="5">
+      <c r="A89" s="6">
         <v>44</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D89" s="6" t="s">
+      <c r="B89" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:26">
+      <c r="A90" s="6">
+        <v>45</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:26">
+      <c r="A91" s="6">
+        <v>46</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:26">
+      <c r="A92" s="6">
         <v>47</v>
       </c>
-      <c r="E89" s="7"/>
-    </row>
-    <row r="90" spans="1:26">
-      <c r="A90" s="5">
-        <v>45</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E90" s="7"/>
-    </row>
-    <row r="91" spans="1:26">
-      <c r="A91" s="5">
+      <c r="B92" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="1:26">
+      <c r="A93" s="6">
+        <v>48</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E93" s="7"/>
+    </row>
+    <row r="94" spans="1:26">
+      <c r="A94" s="6">
+        <v>49</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="7"/>
+    </row>
+    <row r="95" spans="1:26">
+      <c r="A95" s="6">
+        <v>50</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="1:26">
+      <c r="A96" s="6">
+        <v>51</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="1:26">
+      <c r="A97" s="6">
+        <v>52</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:26">
+      <c r="A98" s="6">
+        <v>53</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="1:26">
+      <c r="A99" s="6">
+        <v>54</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="1:26">
+      <c r="A100" s="6">
+        <v>55</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E91" s="7"/>
-    </row>
-    <row r="92" spans="1:26">
-      <c r="A92" s="5">
-        <v>47</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E92" s="7"/>
-    </row>
-    <row r="93" spans="1:26">
-      <c r="A93" s="5">
-        <v>48</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E93" s="7"/>
-    </row>
-    <row r="94" spans="1:26">
-      <c r="A94" s="5">
-        <v>49</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="7"/>
-    </row>
-    <row r="95" spans="1:26">
-      <c r="A95" s="5">
-        <v>50</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="7"/>
-    </row>
-    <row r="96" spans="1:26">
-      <c r="A96" s="5">
-        <v>51</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96" s="7"/>
-    </row>
-    <row r="97" spans="1:26">
-      <c r="A97" s="5">
-        <v>52</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E97" s="7"/>
-    </row>
-    <row r="98" spans="1:26">
-      <c r="A98" s="5">
-        <v>53</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" s="7"/>
-    </row>
-    <row r="99" spans="1:26">
-      <c r="A99" s="5">
-        <v>54</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E99" s="7"/>
-    </row>
-    <row r="100" spans="1:26">
-      <c r="A100" s="5">
-        <v>55</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="E100" s="7"/>
     </row>
     <row r="101" spans="1:26">
-      <c r="A101" s="5">
+      <c r="A101" s="6">
         <v>56</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>147</v>
+      <c r="B101" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="E101" s="7"/>
     </row>
     <row r="102" spans="1:26">
-      <c r="A102" s="5">
+      <c r="A102" s="6">
         <v>57</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>150</v>
+      <c r="B102" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="E102" s="7"/>
     </row>
     <row r="103" spans="1:26">
-      <c r="A103" s="5">
+      <c r="A103" s="6">
         <v>58</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>153</v>
+      <c r="B103" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="E103" s="7"/>
     </row>
     <row r="104" spans="1:26">
-      <c r="A104" s="5">
+      <c r="A104" s="6">
         <v>59</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>156</v>
+      <c r="B104" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="E104" s="7"/>
     </row>
     <row r="105" spans="1:26">
-      <c r="A105" s="5">
+      <c r="A105" s="6">
         <v>60</v>
       </c>
-      <c r="B105" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>159</v>
+      <c r="B105" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="E105" s="7"/>
     </row>
     <row r="106" spans="1:26">
       <c r="A106" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="15"/>
       <c r="E107" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F107" s="20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
       <c r="J107" s="15"/>
       <c r="K107" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
       <c r="O107" s="15"/>
       <c r="P107" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q107" s="20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R107" s="13"/>
       <c r="S107" s="13"/>
       <c r="T107" s="13"/>
       <c r="U107" s="15"/>
       <c r="V107" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="W107" s="13"/>
       <c r="X107" s="13"/>
@@ -2685,7 +2712,7 @@
       <c r="T108"/>
       <c r="U108" s="16"/>
       <c r="V108" s="21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="W108"/>
       <c r="X108"/>
@@ -2715,7 +2742,7 @@
       <c r="T109"/>
       <c r="U109" s="16"/>
       <c r="V109" s="21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="W109"/>
       <c r="X109"/>
@@ -2745,7 +2772,7 @@
       <c r="T110"/>
       <c r="U110" s="16"/>
       <c r="V110" s="21" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="W110"/>
       <c r="X110"/>
@@ -2775,7 +2802,7 @@
       <c r="T111" s="14"/>
       <c r="U111" s="17"/>
       <c r="V111" s="22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="W111" s="14"/>
       <c r="X111" s="14"/>
@@ -2806,7 +2833,7 @@
         <v>4</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="1:26">
@@ -2816,348 +2843,348 @@
     </row>
     <row r="118" spans="1:26" customHeight="1" ht="6"/>
     <row r="123" spans="1:26">
-      <c r="A123" s="5">
+      <c r="A123" s="6">
         <v>61</v>
       </c>
-      <c r="B123" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C123" s="6" t="s">
+      <c r="B123" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E123" s="7"/>
+    </row>
+    <row r="124" spans="1:26">
+      <c r="A124" s="6">
+        <v>62</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E124" s="7"/>
+    </row>
+    <row r="125" spans="1:26">
+      <c r="A125" s="6">
+        <v>63</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E125" s="7"/>
+    </row>
+    <row r="126" spans="1:26">
+      <c r="A126" s="6">
+        <v>64</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E126" s="7"/>
+    </row>
+    <row r="127" spans="1:26">
+      <c r="A127" s="6">
+        <v>65</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D127" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D123" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E123" s="7"/>
-    </row>
-    <row r="124" spans="1:26">
-      <c r="A124" s="5">
-        <v>62</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D124" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E124" s="7"/>
-    </row>
-    <row r="125" spans="1:26">
-      <c r="A125" s="5">
-        <v>63</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="E125" s="7"/>
-    </row>
-    <row r="126" spans="1:26">
-      <c r="A126" s="5">
-        <v>64</v>
-      </c>
-      <c r="B126" s="6" t="s">
+      <c r="E127" s="7"/>
+    </row>
+    <row r="128" spans="1:26">
+      <c r="A128" s="6">
+        <v>66</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E128" s="7"/>
+    </row>
+    <row r="129" spans="1:26">
+      <c r="A129" s="6">
+        <v>67</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D129" s="5"/>
+      <c r="E129" s="7"/>
+    </row>
+    <row r="130" spans="1:26">
+      <c r="A130" s="6">
+        <v>68</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E130" s="7"/>
+    </row>
+    <row r="131" spans="1:26">
+      <c r="A131" s="6">
+        <v>69</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E131" s="7"/>
+    </row>
+    <row r="132" spans="1:26">
+      <c r="A132" s="6">
+        <v>70</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E132" s="7"/>
+    </row>
+    <row r="133" spans="1:26">
+      <c r="A133" s="6">
+        <v>71</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E133" s="7"/>
+    </row>
+    <row r="134" spans="1:26">
+      <c r="A134" s="6">
+        <v>72</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E134" s="7"/>
+    </row>
+    <row r="135" spans="1:26">
+      <c r="A135" s="6">
+        <v>73</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="E135" s="7"/>
+    </row>
+    <row r="136" spans="1:26">
+      <c r="A136" s="6">
+        <v>74</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E136" s="7"/>
+    </row>
+    <row r="137" spans="1:26">
+      <c r="A137" s="6">
+        <v>75</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E137" s="7"/>
+    </row>
+    <row r="138" spans="1:26">
+      <c r="A138" s="6">
+        <v>76</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E138" s="7"/>
+    </row>
+    <row r="139" spans="1:26">
+      <c r="A139" s="6">
+        <v>77</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D139" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E126" s="7"/>
-    </row>
-    <row r="127" spans="1:26">
-      <c r="A127" s="5">
-        <v>65</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E127" s="7"/>
-    </row>
-    <row r="128" spans="1:26">
-      <c r="A128" s="5">
-        <v>66</v>
-      </c>
-      <c r="B128" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E128" s="7"/>
-    </row>
-    <row r="129" spans="1:26">
-      <c r="A129" s="5">
-        <v>67</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D129" s="6"/>
-      <c r="E129" s="7"/>
-    </row>
-    <row r="130" spans="1:26">
-      <c r="A130" s="5">
-        <v>68</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E130" s="7"/>
-    </row>
-    <row r="131" spans="1:26">
-      <c r="A131" s="5">
-        <v>69</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="E131" s="7"/>
-    </row>
-    <row r="132" spans="1:26">
-      <c r="A132" s="5">
-        <v>70</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D132" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E132" s="7"/>
-    </row>
-    <row r="133" spans="1:26">
-      <c r="A133" s="5">
-        <v>71</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E133" s="7"/>
-    </row>
-    <row r="134" spans="1:26">
-      <c r="A134" s="5">
-        <v>72</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D134" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E134" s="7"/>
-    </row>
-    <row r="135" spans="1:26">
-      <c r="A135" s="5">
-        <v>73</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D135" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E135" s="7"/>
-    </row>
-    <row r="136" spans="1:26">
-      <c r="A136" s="5">
-        <v>74</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D136" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E136" s="7"/>
-    </row>
-    <row r="137" spans="1:26">
-      <c r="A137" s="5">
-        <v>75</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E137" s="7"/>
-    </row>
-    <row r="138" spans="1:26">
-      <c r="A138" s="5">
-        <v>76</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D138" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E138" s="7"/>
-    </row>
-    <row r="139" spans="1:26">
-      <c r="A139" s="5">
-        <v>77</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D139" s="6" t="s">
-        <v>167</v>
-      </c>
       <c r="E139" s="7"/>
     </row>
     <row r="140" spans="1:26">
-      <c r="A140" s="5">
+      <c r="A140" s="6">
         <v>78</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D140" s="6" t="s">
-        <v>207</v>
+      <c r="B140" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="E140" s="7"/>
     </row>
     <row r="141" spans="1:26">
-      <c r="A141" s="5">
+      <c r="A141" s="6">
         <v>79</v>
       </c>
-      <c r="B141" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D141" s="6" t="s">
-        <v>150</v>
+      <c r="B141" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="E141" s="7"/>
     </row>
     <row r="142" spans="1:26">
-      <c r="A142" s="5">
+      <c r="A142" s="6">
         <v>80</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D142" s="6" t="s">
-        <v>16</v>
+      <c r="B142" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E142" s="7"/>
     </row>
     <row r="143" spans="1:26">
       <c r="A143" s="8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="144" spans="1:26">
       <c r="A144" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C144" s="13"/>
       <c r="D144" s="15"/>
       <c r="E144" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F144" s="20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G144" s="13"/>
       <c r="H144" s="13"/>
       <c r="I144" s="13"/>
       <c r="J144" s="15"/>
       <c r="K144" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L144" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M144" s="13"/>
       <c r="N144" s="13"/>
       <c r="O144" s="15"/>
       <c r="P144" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q144" s="20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R144" s="13"/>
       <c r="S144" s="13"/>
       <c r="T144" s="13"/>
       <c r="U144" s="15"/>
       <c r="V144" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="W144" s="13"/>
       <c r="X144" s="13"/>
@@ -3187,7 +3214,7 @@
       <c r="T145"/>
       <c r="U145" s="16"/>
       <c r="V145" s="21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="W145"/>
       <c r="X145"/>
@@ -3217,7 +3244,7 @@
       <c r="T146"/>
       <c r="U146" s="16"/>
       <c r="V146" s="21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="W146"/>
       <c r="X146"/>
@@ -3247,7 +3274,7 @@
       <c r="T147"/>
       <c r="U147" s="16"/>
       <c r="V147" s="21" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="W147"/>
       <c r="X147"/>
@@ -3277,7 +3304,7 @@
       <c r="T148" s="14"/>
       <c r="U148" s="17"/>
       <c r="V148" s="22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="W148" s="14"/>
       <c r="X148" s="14"/>
@@ -3308,7 +3335,7 @@
         <v>4</v>
       </c>
       <c r="Q153" s="3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="154" spans="1:26">
@@ -3318,248 +3345,248 @@
     </row>
     <row r="155" spans="1:26" customHeight="1" ht="6"/>
     <row r="160" spans="1:26">
-      <c r="A160" s="5">
+      <c r="A160" s="6">
         <v>81</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D160" s="6" t="s">
-        <v>16</v>
+      <c r="B160" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E160" s="7"/>
     </row>
     <row r="161" spans="1:26">
-      <c r="A161" s="5">
+      <c r="A161" s="6">
         <v>82</v>
       </c>
-      <c r="B161" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>16</v>
+      <c r="B161" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E161" s="7"/>
     </row>
     <row r="162" spans="1:26">
-      <c r="A162" s="5">
+      <c r="A162" s="6">
         <v>83</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D162" s="6" t="s">
-        <v>16</v>
+      <c r="B162" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E162" s="7"/>
     </row>
     <row r="163" spans="1:26">
-      <c r="A163" s="5">
+      <c r="A163" s="6">
         <v>84</v>
       </c>
-      <c r="B163" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D163" s="6" t="s">
-        <v>16</v>
+      <c r="B163" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:26">
-      <c r="A164" s="5">
+      <c r="A164" s="6">
         <v>85</v>
       </c>
-      <c r="B164" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D164" s="6" t="s">
-        <v>16</v>
+      <c r="B164" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E164" s="7"/>
     </row>
     <row r="165" spans="1:26">
-      <c r="A165" s="5">
+      <c r="A165" s="6">
         <v>86</v>
       </c>
-      <c r="B165" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>16</v>
+      <c r="B165" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E165" s="7"/>
     </row>
     <row r="166" spans="1:26">
-      <c r="A166" s="5">
+      <c r="A166" s="6">
         <v>87</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>16</v>
+      <c r="B166" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E166" s="7"/>
     </row>
     <row r="167" spans="1:26">
-      <c r="A167" s="5">
+      <c r="A167" s="6">
         <v>88</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>16</v>
+      <c r="B167" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E167" s="7"/>
     </row>
     <row r="168" spans="1:26">
-      <c r="A168" s="5">
+      <c r="A168" s="6">
         <v>89</v>
       </c>
-      <c r="B168" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D168" s="6" t="s">
-        <v>16</v>
+      <c r="B168" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E168" s="7"/>
     </row>
     <row r="169" spans="1:26">
-      <c r="A169" s="5">
+      <c r="A169" s="6">
         <v>90</v>
       </c>
-      <c r="B169" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D169" s="6" t="s">
-        <v>16</v>
+      <c r="B169" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E169" s="7"/>
     </row>
     <row r="170" spans="1:26">
-      <c r="A170" s="5">
+      <c r="A170" s="6">
         <v>91</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D170" s="6" t="s">
-        <v>16</v>
+      <c r="B170" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E170" s="7"/>
     </row>
     <row r="171" spans="1:26">
-      <c r="A171" s="5">
+      <c r="A171" s="6">
         <v>92</v>
       </c>
-      <c r="B171" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>16</v>
+      <c r="B171" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E171" s="7"/>
     </row>
     <row r="172" spans="1:26">
-      <c r="A172" s="5">
+      <c r="A172" s="6">
         <v>93</v>
       </c>
-      <c r="B172" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>16</v>
+      <c r="B172" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E172" s="7"/>
     </row>
     <row r="173" spans="1:26">
       <c r="A173" s="8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="174" spans="1:26">
-      <c r="A174" s="6"/>
+      <c r="A174" s="5"/>
     </row>
     <row r="175" spans="1:26">
       <c r="A175" s="9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C175" s="13"/>
       <c r="D175" s="15"/>
       <c r="E175" s="19" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F175" s="20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G175" s="13"/>
       <c r="H175" s="13"/>
       <c r="I175" s="13"/>
       <c r="J175" s="15"/>
       <c r="K175" s="9" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L175" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M175" s="13"/>
       <c r="N175" s="13"/>
       <c r="O175" s="15"/>
       <c r="P175" s="9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q175" s="20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R175" s="13"/>
       <c r="S175" s="13"/>
       <c r="T175" s="13"/>
       <c r="U175" s="15"/>
       <c r="V175" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="W175" s="13"/>
       <c r="X175" s="13"/>
@@ -3589,7 +3616,7 @@
       <c r="T176"/>
       <c r="U176" s="16"/>
       <c r="V176" s="21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="W176"/>
       <c r="X176"/>
@@ -3619,7 +3646,7 @@
       <c r="T177"/>
       <c r="U177" s="16"/>
       <c r="V177" s="21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="W177"/>
       <c r="X177"/>
@@ -3649,7 +3676,7 @@
       <c r="T178"/>
       <c r="U178" s="16"/>
       <c r="V178" s="21" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="W178"/>
       <c r="X178"/>
@@ -3679,7 +3706,7 @@
       <c r="T179" s="14"/>
       <c r="U179" s="17"/>
       <c r="V179" s="22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="W179" s="14"/>
       <c r="X179" s="14"/>

--- a/public/reports/payroll.xlsx
+++ b/public/reports/payroll.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
   <si>
     <t>P   A   Y   R   O   L   L</t>
   </si>
@@ -227,6 +227,12 @@
     <t>APRO2</t>
   </si>
   <si>
+    <t>DE LEON, MARIA AILEEN P.</t>
+  </si>
+  <si>
+    <t>15-179</t>
+  </si>
+  <si>
     <t xml:space="preserve">        Total Page 1</t>
   </si>
   <si>
@@ -392,6 +398,12 @@
     <t>97-049</t>
   </si>
   <si>
+    <t>NEGRETE, GRACE L.</t>
+  </si>
+  <si>
+    <t>14-079</t>
+  </si>
+  <si>
     <t xml:space="preserve">        Total Page 2</t>
   </si>
   <si>
@@ -527,6 +539,15 @@
     <t>SECG1</t>
   </si>
   <si>
+    <t>BALIZA, ERNESTO H.</t>
+  </si>
+  <si>
+    <t>96-041</t>
+  </si>
+  <si>
+    <t>ADA4</t>
+  </si>
+  <si>
     <t xml:space="preserve">        Total Page 3</t>
   </si>
   <si>
@@ -575,9 +596,6 @@
     <t>15-085</t>
   </si>
   <si>
-    <t>ADA4</t>
-  </si>
-  <si>
     <t>FIESTA, LEONEL C.</t>
   </si>
   <si>
@@ -680,6 +698,12 @@
     <t>13-077</t>
   </si>
   <si>
+    <t>ALMASCO, ABE-GAEL M.</t>
+  </si>
+  <si>
+    <t>18-168</t>
+  </si>
+  <si>
     <t xml:space="preserve">        Total Page 4</t>
   </si>
   <si>
@@ -758,7 +782,16 @@
     <t>18-193</t>
   </si>
   <si>
+    <t>TAYA, LELIA C.</t>
+  </si>
+  <si>
+    <t>15-117</t>
+  </si>
+  <si>
     <t xml:space="preserve">        Total Page 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Total</t>
   </si>
 </sst>
 </file>
@@ -842,7 +875,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border/>
     <border>
       <left style="thin">
@@ -1009,6 +1042,11 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1068,7 +1106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -1141,41 +1179,47 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="17" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="17" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1189,31 +1233,22 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="20" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="17" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="17" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1515,10 +1550,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Z178"/>
+  <dimension ref="A1:Z179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="V174" sqref="V174:Z178"/>
+      <selection activeCell="V175" sqref="V175:Z179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="12" defaultColWidth="12" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1672,16 +1707,16 @@
       <c r="A12" s="22">
         <v>1</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -2125,212 +2160,236 @@
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="24">
+        <v>20</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28">
-        <f>SUM(E12:E30)</f>
+      <c r="C31" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="28"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="19"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31">
+        <f>SUM(E12:E31)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="29"/>
-      <c r="G31" s="28">
-        <f>SUM(G12:G30)</f>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31">
+        <f>SUM(G12:G31)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="28">
-        <f>SUM(H12:H30)</f>
+      <c r="H32" s="31">
+        <f>SUM(H12:H31)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="28">
-        <f>SUM(I12:I30)</f>
+      <c r="I32" s="31">
+        <f>SUM(I12:I31)</f>
         <v>0</v>
       </c>
-      <c r="J31" s="28">
-        <f>SUM(J12:J30)</f>
+      <c r="J32" s="31">
+        <f>SUM(J12:J31)</f>
         <v>0</v>
       </c>
-      <c r="K31" s="28">
-        <f>SUM(K12:K30)</f>
+      <c r="K32" s="31">
+        <f>SUM(K12:K31)</f>
         <v>0</v>
       </c>
-      <c r="L31" s="29"/>
-      <c r="M31" s="28">
-        <f>SUM(M12:M30)</f>
+      <c r="L32" s="30"/>
+      <c r="M32" s="31">
+        <f>SUM(M12:M31)</f>
         <v>0</v>
       </c>
-      <c r="N31" s="30">
-        <f>SUM(N12:N30)</f>
+      <c r="N32" s="32">
+        <f>SUM(N12:N31)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
-      <c r="A32" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="41" t="s">
+    <row r="33" spans="1:26">
+      <c r="A33" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="42" t="s">
+      <c r="B33" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="31" t="s">
+      <c r="C33" s="38"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="L32" s="34" t="s">
+      <c r="F33" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="31" t="s">
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="Q32" s="42" t="s">
+      <c r="L33" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="31" t="s">
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="37"/>
-    </row>
-    <row r="33" spans="1:26">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33"/>
-      <c r="D33" s="38"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="32"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="32"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="43" t="s">
+      <c r="Q33" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="40"/>
     </row>
     <row r="34" spans="1:26">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
       <c r="C34"/>
-      <c r="D34" s="38"/>
+      <c r="D34" s="41"/>
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="32"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="35"/>
       <c r="L34"/>
       <c r="M34"/>
       <c r="N34"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="32"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="35"/>
       <c r="Q34"/>
       <c r="R34"/>
       <c r="S34"/>
       <c r="T34"/>
-      <c r="U34" s="38"/>
-      <c r="V34" s="43" t="s">
-        <v>81</v>
+      <c r="U34" s="41"/>
+      <c r="V34" s="46" t="s">
+        <v>82</v>
       </c>
       <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34" s="38"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="41"/>
     </row>
     <row r="35" spans="1:26">
-      <c r="A35" s="32"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
       <c r="C35"/>
-      <c r="D35" s="38"/>
+      <c r="D35" s="41"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="32"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="35"/>
       <c r="L35"/>
       <c r="M35"/>
       <c r="N35"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="32"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="35"/>
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
       <c r="T35"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="43" t="s">
-        <v>82</v>
+      <c r="U35" s="41"/>
+      <c r="V35" s="46" t="s">
+        <v>83</v>
       </c>
       <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35" s="38"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="41"/>
     </row>
     <row r="36" spans="1:26">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="36"/>
-      <c r="S36" s="36"/>
-      <c r="T36" s="36"/>
-      <c r="U36" s="39"/>
-      <c r="V36" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="W36" s="36"/>
-      <c r="X36" s="36"/>
-      <c r="Y36" s="36"/>
-      <c r="Z36" s="39"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36"/>
+      <c r="D36" s="41"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="35"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="35"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="W36"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="41"/>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="42"/>
     </row>
     <row r="38" spans="1:26" customHeight="1" ht="23">
       <c r="A38" s="1" t="s">
@@ -2356,7 +2415,7 @@
         <v>4</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:26">
@@ -2467,16 +2526,16 @@
       <c r="A49" s="22">
         <v>21</v>
       </c>
-      <c r="B49" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="24" t="s">
+      <c r="B49" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="25"/>
+      <c r="E49" s="26"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
@@ -2492,10 +2551,10 @@
         <v>22</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D50" s="20" t="s">
         <v>41</v>
@@ -2516,13 +2575,13 @@
         <v>23</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E51" s="21"/>
       <c r="F51" s="5"/>
@@ -2540,10 +2599,10 @@
         <v>24</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D52" s="20" t="s">
         <v>41</v>
@@ -2564,10 +2623,10 @@
         <v>25</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D53" s="20" t="s">
         <v>36</v>
@@ -2588,10 +2647,10 @@
         <v>26</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D54" s="20" t="s">
         <v>36</v>
@@ -2612,13 +2671,13 @@
         <v>27</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="21"/>
       <c r="F55" s="5"/>
@@ -2636,10 +2695,10 @@
         <v>28</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D56" s="20" t="s">
         <v>48</v>
@@ -2660,10 +2719,10 @@
         <v>29</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D57" s="20" t="s">
         <v>33</v>
@@ -2684,10 +2743,10 @@
         <v>30</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D58" s="20" t="s">
         <v>64</v>
@@ -2708,10 +2767,10 @@
         <v>31</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>36</v>
@@ -2732,10 +2791,10 @@
         <v>32</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D60" s="20" t="s">
         <v>41</v>
@@ -2756,10 +2815,10 @@
         <v>33</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D61" s="20" t="s">
         <v>33</v>
@@ -2780,10 +2839,10 @@
         <v>34</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D62" s="20" t="s">
         <v>59</v>
@@ -2804,10 +2863,10 @@
         <v>35</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D63" s="20" t="s">
         <v>36</v>
@@ -2828,10 +2887,10 @@
         <v>36</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D64" s="20" t="s">
         <v>64</v>
@@ -2852,10 +2911,10 @@
         <v>37</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D65" s="20" t="s">
         <v>41</v>
@@ -2876,13 +2935,13 @@
         <v>38</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E66" s="21"/>
       <c r="F66" s="5"/>
@@ -2900,10 +2959,10 @@
         <v>39</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D67" s="20" t="s">
         <v>26</v>
@@ -2920,212 +2979,236 @@
       <c r="N67" s="18"/>
     </row>
     <row r="68" spans="1:26">
-      <c r="A68" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="28">
-        <f>SUM(E49:E67)</f>
+      <c r="A68" s="24">
+        <v>40</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68" s="28"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="19"/>
+    </row>
+    <row r="69" spans="1:26">
+      <c r="A69" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="31">
+        <f>SUM(E49:E68)</f>
         <v>0</v>
       </c>
-      <c r="F68" s="29"/>
-      <c r="G68" s="28">
-        <f>SUM(G49:G67)</f>
+      <c r="F69" s="30"/>
+      <c r="G69" s="31">
+        <f>SUM(G49:G68)</f>
         <v>0</v>
       </c>
-      <c r="H68" s="28">
-        <f>SUM(H49:H67)</f>
+      <c r="H69" s="31">
+        <f>SUM(H49:H68)</f>
         <v>0</v>
       </c>
-      <c r="I68" s="28">
-        <f>SUM(I49:I67)</f>
+      <c r="I69" s="31">
+        <f>SUM(I49:I68)</f>
         <v>0</v>
       </c>
-      <c r="J68" s="28">
-        <f>SUM(J49:J67)</f>
+      <c r="J69" s="31">
+        <f>SUM(J49:J68)</f>
         <v>0</v>
       </c>
-      <c r="K68" s="28">
-        <f>SUM(K49:K67)</f>
+      <c r="K69" s="31">
+        <f>SUM(K49:K68)</f>
         <v>0</v>
       </c>
-      <c r="L68" s="29"/>
-      <c r="M68" s="28">
-        <f>SUM(M49:M67)</f>
+      <c r="L69" s="30"/>
+      <c r="M69" s="31">
+        <f>SUM(M49:M68)</f>
         <v>0</v>
       </c>
-      <c r="N68" s="30">
-        <f>SUM(N49:N67)</f>
+      <c r="N69" s="32">
+        <f>SUM(N49:N68)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
-      <c r="A69" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="35"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="41" t="s">
+    <row r="70" spans="1:26">
+      <c r="A70" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F69" s="42" t="s">
+      <c r="B70" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="31" t="s">
+      <c r="C70" s="38"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="L69" s="34" t="s">
+      <c r="F70" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="31" t="s">
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="40"/>
+      <c r="K70" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="Q69" s="42" t="s">
+      <c r="L70" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="37"/>
-      <c r="V69" s="31" t="s">
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="W69" s="35"/>
-      <c r="X69" s="35"/>
-      <c r="Y69" s="35"/>
-      <c r="Z69" s="37"/>
-    </row>
-    <row r="70" spans="1:26">
-      <c r="A70" s="32"/>
-      <c r="B70" s="32"/>
-      <c r="C70"/>
-      <c r="D70" s="38"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="32"/>
-      <c r="L70"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="32"/>
-      <c r="Q70"/>
-      <c r="R70"/>
-      <c r="S70"/>
-      <c r="T70"/>
-      <c r="U70" s="38"/>
-      <c r="V70" s="43" t="s">
+      <c r="Q70" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="W70"/>
-      <c r="X70"/>
-      <c r="Y70"/>
-      <c r="Z70" s="38"/>
+      <c r="R70" s="38"/>
+      <c r="S70" s="38"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="40"/>
+      <c r="V70" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="W70" s="38"/>
+      <c r="X70" s="38"/>
+      <c r="Y70" s="38"/>
+      <c r="Z70" s="40"/>
     </row>
     <row r="71" spans="1:26">
-      <c r="A71" s="32"/>
-      <c r="B71" s="32"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
       <c r="C71"/>
-      <c r="D71" s="38"/>
+      <c r="D71" s="41"/>
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="32"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="35"/>
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71"/>
-      <c r="O71" s="38"/>
-      <c r="P71" s="32"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="35"/>
       <c r="Q71"/>
       <c r="R71"/>
       <c r="S71"/>
       <c r="T71"/>
-      <c r="U71" s="38"/>
-      <c r="V71" s="43" t="s">
-        <v>81</v>
+      <c r="U71" s="41"/>
+      <c r="V71" s="46" t="s">
+        <v>82</v>
       </c>
       <c r="W71"/>
-      <c r="X71"/>
-      <c r="Y71"/>
-      <c r="Z71" s="38"/>
+      <c r="X71" s="33"/>
+      <c r="Y71" s="33"/>
+      <c r="Z71" s="41"/>
     </row>
     <row r="72" spans="1:26">
-      <c r="A72" s="32"/>
-      <c r="B72" s="32"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
       <c r="C72"/>
-      <c r="D72" s="38"/>
+      <c r="D72" s="41"/>
       <c r="E72"/>
       <c r="F72"/>
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="32"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="35"/>
       <c r="L72"/>
       <c r="M72"/>
       <c r="N72"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="32"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="35"/>
       <c r="Q72"/>
       <c r="R72"/>
       <c r="S72"/>
       <c r="T72"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="43" t="s">
-        <v>82</v>
+      <c r="U72" s="41"/>
+      <c r="V72" s="46" t="s">
+        <v>83</v>
       </c>
       <c r="W72"/>
-      <c r="X72"/>
-      <c r="Y72"/>
-      <c r="Z72" s="38"/>
+      <c r="X72" s="33"/>
+      <c r="Y72" s="33"/>
+      <c r="Z72" s="41"/>
     </row>
     <row r="73" spans="1:26">
-      <c r="A73" s="33"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="39"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="36"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="39"/>
-      <c r="P73" s="33"/>
-      <c r="Q73" s="36"/>
-      <c r="R73" s="36"/>
-      <c r="S73" s="36"/>
-      <c r="T73" s="36"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="W73" s="36"/>
-      <c r="X73" s="36"/>
-      <c r="Y73" s="36"/>
-      <c r="Z73" s="39"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
+      <c r="C73"/>
+      <c r="D73" s="41"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="35"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="35"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73" s="41"/>
+      <c r="V73" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="W73"/>
+      <c r="X73" s="33"/>
+      <c r="Y73" s="33"/>
+      <c r="Z73" s="41"/>
+    </row>
+    <row r="74" spans="1:26">
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="39"/>
+      <c r="M74" s="39"/>
+      <c r="N74" s="39"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="39"/>
+      <c r="R74" s="39"/>
+      <c r="S74" s="39"/>
+      <c r="T74" s="39"/>
+      <c r="U74" s="42"/>
+      <c r="V74" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="W74" s="39"/>
+      <c r="X74" s="39"/>
+      <c r="Y74" s="39"/>
+      <c r="Z74" s="42"/>
     </row>
     <row r="75" spans="1:26" customHeight="1" ht="23">
       <c r="A75" s="1" t="s">
@@ -3151,7 +3234,7 @@
         <v>4</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:26">
@@ -3262,16 +3345,16 @@
       <c r="A86" s="22">
         <v>41</v>
       </c>
-      <c r="B86" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D86" s="24" t="s">
+      <c r="B86" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E86" s="25"/>
+      <c r="E86" s="26"/>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
@@ -3287,13 +3370,13 @@
         <v>42</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E87" s="21"/>
       <c r="F87" s="5"/>
@@ -3311,10 +3394,10 @@
         <v>43</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D88" s="20" t="s">
         <v>33</v>
@@ -3335,10 +3418,10 @@
         <v>44</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D89" s="20" t="s">
         <v>64</v>
@@ -3359,10 +3442,10 @@
         <v>45</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D90" s="20" t="s">
         <v>26</v>
@@ -3383,10 +3466,10 @@
         <v>46</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D91" s="20" t="s">
         <v>36</v>
@@ -3407,13 +3490,13 @@
         <v>47</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E92" s="21"/>
       <c r="F92" s="5"/>
@@ -3431,13 +3514,13 @@
         <v>48</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E93" s="21"/>
       <c r="F93" s="5"/>
@@ -3455,10 +3538,10 @@
         <v>49</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D94" s="20" t="s">
         <v>26</v>
@@ -3479,10 +3562,10 @@
         <v>50</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D95" s="20" t="s">
         <v>26</v>
@@ -3503,10 +3586,10 @@
         <v>51</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D96" s="20" t="s">
         <v>33</v>
@@ -3527,10 +3610,10 @@
         <v>52</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D97" s="20" t="s">
         <v>33</v>
@@ -3551,10 +3634,10 @@
         <v>53</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D98" s="20" t="s">
         <v>36</v>
@@ -3575,10 +3658,10 @@
         <v>54</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D99" s="20" t="s">
         <v>33</v>
@@ -3599,10 +3682,10 @@
         <v>55</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D100" s="20" t="s">
         <v>59</v>
@@ -3623,13 +3706,13 @@
         <v>56</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E101" s="21"/>
       <c r="F101" s="5"/>
@@ -3647,13 +3730,13 @@
         <v>57</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E102" s="21"/>
       <c r="F102" s="5"/>
@@ -3671,13 +3754,13 @@
         <v>58</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E103" s="21"/>
       <c r="F103" s="5"/>
@@ -3695,13 +3778,13 @@
         <v>59</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E104" s="21"/>
       <c r="F104" s="5"/>
@@ -3715,212 +3798,236 @@
       <c r="N104" s="18"/>
     </row>
     <row r="105" spans="1:26">
-      <c r="A105" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="28">
-        <f>SUM(E86:E104)</f>
+      <c r="A105" s="24">
+        <v>60</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D105" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E105" s="28"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="14"/>
+      <c r="N105" s="19"/>
+    </row>
+    <row r="106" spans="1:26">
+      <c r="A106" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="31">
+        <f>SUM(E86:E105)</f>
         <v>0</v>
       </c>
-      <c r="F105" s="29"/>
-      <c r="G105" s="28">
-        <f>SUM(G86:G104)</f>
+      <c r="F106" s="30"/>
+      <c r="G106" s="31">
+        <f>SUM(G86:G105)</f>
         <v>0</v>
       </c>
-      <c r="H105" s="28">
-        <f>SUM(H86:H104)</f>
+      <c r="H106" s="31">
+        <f>SUM(H86:H105)</f>
         <v>0</v>
       </c>
-      <c r="I105" s="28">
-        <f>SUM(I86:I104)</f>
+      <c r="I106" s="31">
+        <f>SUM(I86:I105)</f>
         <v>0</v>
       </c>
-      <c r="J105" s="28">
-        <f>SUM(J86:J104)</f>
+      <c r="J106" s="31">
+        <f>SUM(J86:J105)</f>
         <v>0</v>
       </c>
-      <c r="K105" s="28">
-        <f>SUM(K86:K104)</f>
+      <c r="K106" s="31">
+        <f>SUM(K86:K105)</f>
         <v>0</v>
       </c>
-      <c r="L105" s="29"/>
-      <c r="M105" s="28">
-        <f>SUM(M86:M104)</f>
+      <c r="L106" s="30"/>
+      <c r="M106" s="31">
+        <f>SUM(M86:M105)</f>
         <v>0</v>
       </c>
-      <c r="N105" s="30">
-        <f>SUM(N86:N104)</f>
+      <c r="N106" s="32">
+        <f>SUM(N86:N105)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:26">
-      <c r="A106" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B106" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C106" s="35"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="41" t="s">
+    <row r="107" spans="1:26">
+      <c r="A107" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F106" s="42" t="s">
+      <c r="B107" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="G106" s="35"/>
-      <c r="H106" s="35"/>
-      <c r="I106" s="35"/>
-      <c r="J106" s="37"/>
-      <c r="K106" s="31" t="s">
+      <c r="C107" s="38"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="L106" s="34" t="s">
+      <c r="F107" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="M106" s="35"/>
-      <c r="N106" s="35"/>
-      <c r="O106" s="37"/>
-      <c r="P106" s="31" t="s">
+      <c r="G107" s="38"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="38"/>
+      <c r="J107" s="40"/>
+      <c r="K107" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="Q106" s="42" t="s">
+      <c r="L107" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="R106" s="35"/>
-      <c r="S106" s="35"/>
-      <c r="T106" s="35"/>
-      <c r="U106" s="37"/>
-      <c r="V106" s="31" t="s">
+      <c r="M107" s="38"/>
+      <c r="N107" s="38"/>
+      <c r="O107" s="40"/>
+      <c r="P107" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="W106" s="35"/>
-      <c r="X106" s="35"/>
-      <c r="Y106" s="35"/>
-      <c r="Z106" s="37"/>
-    </row>
-    <row r="107" spans="1:26">
-      <c r="A107" s="32"/>
-      <c r="B107" s="32"/>
-      <c r="C107"/>
-      <c r="D107" s="38"/>
-      <c r="E107"/>
-      <c r="F107"/>
-      <c r="G107"/>
-      <c r="H107"/>
-      <c r="I107"/>
-      <c r="J107" s="38"/>
-      <c r="K107" s="32"/>
-      <c r="L107"/>
-      <c r="M107"/>
-      <c r="N107"/>
-      <c r="O107" s="38"/>
-      <c r="P107" s="32"/>
-      <c r="Q107"/>
-      <c r="R107"/>
-      <c r="S107"/>
-      <c r="T107"/>
-      <c r="U107" s="38"/>
-      <c r="V107" s="43" t="s">
+      <c r="Q107" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="W107"/>
-      <c r="X107"/>
-      <c r="Y107"/>
-      <c r="Z107" s="38"/>
+      <c r="R107" s="38"/>
+      <c r="S107" s="38"/>
+      <c r="T107" s="38"/>
+      <c r="U107" s="40"/>
+      <c r="V107" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="W107" s="38"/>
+      <c r="X107" s="38"/>
+      <c r="Y107" s="38"/>
+      <c r="Z107" s="40"/>
     </row>
     <row r="108" spans="1:26">
-      <c r="A108" s="32"/>
-      <c r="B108" s="32"/>
+      <c r="A108" s="35"/>
+      <c r="B108" s="35"/>
       <c r="C108"/>
-      <c r="D108" s="38"/>
+      <c r="D108" s="41"/>
       <c r="E108"/>
       <c r="F108"/>
       <c r="G108"/>
       <c r="H108"/>
       <c r="I108"/>
-      <c r="J108" s="38"/>
-      <c r="K108" s="32"/>
+      <c r="J108" s="41"/>
+      <c r="K108" s="35"/>
       <c r="L108"/>
       <c r="M108"/>
       <c r="N108"/>
-      <c r="O108" s="38"/>
-      <c r="P108" s="32"/>
+      <c r="O108" s="41"/>
+      <c r="P108" s="35"/>
       <c r="Q108"/>
       <c r="R108"/>
       <c r="S108"/>
       <c r="T108"/>
-      <c r="U108" s="38"/>
-      <c r="V108" s="43" t="s">
-        <v>81</v>
+      <c r="U108" s="41"/>
+      <c r="V108" s="46" t="s">
+        <v>82</v>
       </c>
       <c r="W108"/>
-      <c r="X108"/>
-      <c r="Y108"/>
-      <c r="Z108" s="38"/>
+      <c r="X108" s="33"/>
+      <c r="Y108" s="33"/>
+      <c r="Z108" s="41"/>
     </row>
     <row r="109" spans="1:26">
-      <c r="A109" s="32"/>
-      <c r="B109" s="32"/>
+      <c r="A109" s="35"/>
+      <c r="B109" s="35"/>
       <c r="C109"/>
-      <c r="D109" s="38"/>
+      <c r="D109" s="41"/>
       <c r="E109"/>
       <c r="F109"/>
       <c r="G109"/>
       <c r="H109"/>
       <c r="I109"/>
-      <c r="J109" s="38"/>
-      <c r="K109" s="32"/>
+      <c r="J109" s="41"/>
+      <c r="K109" s="35"/>
       <c r="L109"/>
       <c r="M109"/>
       <c r="N109"/>
-      <c r="O109" s="38"/>
-      <c r="P109" s="32"/>
+      <c r="O109" s="41"/>
+      <c r="P109" s="35"/>
       <c r="Q109"/>
       <c r="R109"/>
       <c r="S109"/>
       <c r="T109"/>
-      <c r="U109" s="38"/>
-      <c r="V109" s="43" t="s">
-        <v>82</v>
+      <c r="U109" s="41"/>
+      <c r="V109" s="46" t="s">
+        <v>83</v>
       </c>
       <c r="W109"/>
-      <c r="X109"/>
-      <c r="Y109"/>
-      <c r="Z109" s="38"/>
+      <c r="X109" s="33"/>
+      <c r="Y109" s="33"/>
+      <c r="Z109" s="41"/>
     </row>
     <row r="110" spans="1:26">
-      <c r="A110" s="33"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="36"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="36"/>
-      <c r="F110" s="36"/>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="39"/>
-      <c r="K110" s="33"/>
-      <c r="L110" s="36"/>
-      <c r="M110" s="36"/>
-      <c r="N110" s="36"/>
-      <c r="O110" s="39"/>
-      <c r="P110" s="33"/>
-      <c r="Q110" s="36"/>
-      <c r="R110" s="36"/>
-      <c r="S110" s="36"/>
-      <c r="T110" s="36"/>
-      <c r="U110" s="39"/>
-      <c r="V110" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="W110" s="36"/>
-      <c r="X110" s="36"/>
-      <c r="Y110" s="36"/>
-      <c r="Z110" s="39"/>
+      <c r="A110" s="35"/>
+      <c r="B110" s="35"/>
+      <c r="C110"/>
+      <c r="D110" s="41"/>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110" s="41"/>
+      <c r="K110" s="35"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110" s="41"/>
+      <c r="P110" s="35"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110"/>
+      <c r="U110" s="41"/>
+      <c r="V110" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="W110"/>
+      <c r="X110" s="33"/>
+      <c r="Y110" s="33"/>
+      <c r="Z110" s="41"/>
+    </row>
+    <row r="111" spans="1:26">
+      <c r="A111" s="36"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="39"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="39"/>
+      <c r="J111" s="42"/>
+      <c r="K111" s="36"/>
+      <c r="L111" s="39"/>
+      <c r="M111" s="39"/>
+      <c r="N111" s="39"/>
+      <c r="O111" s="42"/>
+      <c r="P111" s="36"/>
+      <c r="Q111" s="39"/>
+      <c r="R111" s="39"/>
+      <c r="S111" s="39"/>
+      <c r="T111" s="39"/>
+      <c r="U111" s="42"/>
+      <c r="V111" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="W111" s="39"/>
+      <c r="X111" s="39"/>
+      <c r="Y111" s="39"/>
+      <c r="Z111" s="42"/>
     </row>
     <row r="112" spans="1:26" customHeight="1" ht="23">
       <c r="A112" s="1" t="s">
@@ -3946,7 +4053,7 @@
         <v>4</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:26">
@@ -4057,16 +4164,16 @@
       <c r="A123" s="22">
         <v>61</v>
       </c>
-      <c r="B123" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="C123" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="D123" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="E123" s="25"/>
+      <c r="B123" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E123" s="26"/>
       <c r="F123" s="13"/>
       <c r="G123" s="13"/>
       <c r="H123" s="13"/>
@@ -4082,13 +4189,13 @@
         <v>62</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E124" s="21"/>
       <c r="F124" s="5"/>
@@ -4106,13 +4213,13 @@
         <v>63</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E125" s="21"/>
       <c r="F125" s="5"/>
@@ -4130,13 +4237,13 @@
         <v>64</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E126" s="21"/>
       <c r="F126" s="5"/>
@@ -4154,13 +4261,13 @@
         <v>65</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C127" s="20" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D127" s="20" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E127" s="21"/>
       <c r="F127" s="5"/>
@@ -4178,13 +4285,13 @@
         <v>66</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E128" s="21"/>
       <c r="F128" s="5"/>
@@ -4202,10 +4309,10 @@
         <v>67</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D129" s="20"/>
       <c r="E129" s="21"/>
@@ -4224,13 +4331,13 @@
         <v>68</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E130" s="21"/>
       <c r="F130" s="5"/>
@@ -4248,13 +4355,13 @@
         <v>69</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E131" s="21"/>
       <c r="F131" s="5"/>
@@ -4272,13 +4379,13 @@
         <v>70</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E132" s="21"/>
       <c r="F132" s="5"/>
@@ -4296,13 +4403,13 @@
         <v>71</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E133" s="21"/>
       <c r="F133" s="5"/>
@@ -4320,13 +4427,13 @@
         <v>72</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E134" s="21"/>
       <c r="F134" s="5"/>
@@ -4344,13 +4451,13 @@
         <v>73</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E135" s="21"/>
       <c r="F135" s="5"/>
@@ -4368,13 +4475,13 @@
         <v>74</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E136" s="21"/>
       <c r="F136" s="5"/>
@@ -4392,13 +4499,13 @@
         <v>75</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E137" s="21"/>
       <c r="F137" s="5"/>
@@ -4416,13 +4523,13 @@
         <v>76</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E138" s="21"/>
       <c r="F138" s="5"/>
@@ -4440,13 +4547,13 @@
         <v>77</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E139" s="21"/>
       <c r="F139" s="5"/>
@@ -4464,13 +4571,13 @@
         <v>78</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E140" s="21"/>
       <c r="F140" s="5"/>
@@ -4488,13 +4595,13 @@
         <v>79</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E141" s="21"/>
       <c r="F141" s="5"/>
@@ -4508,212 +4615,236 @@
       <c r="N141" s="18"/>
     </row>
     <row r="142" spans="1:26">
-      <c r="A142" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="B142" s="27"/>
-      <c r="C142" s="27"/>
-      <c r="D142" s="27"/>
-      <c r="E142" s="28">
-        <f>SUM(E123:E141)</f>
+      <c r="A142" s="24">
+        <v>80</v>
+      </c>
+      <c r="B142" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="C142" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="D142" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E142" s="28"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
+      <c r="J142" s="14"/>
+      <c r="K142" s="14"/>
+      <c r="L142" s="14"/>
+      <c r="M142" s="14"/>
+      <c r="N142" s="19"/>
+    </row>
+    <row r="143" spans="1:26">
+      <c r="A143" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="31">
+        <f>SUM(E123:E142)</f>
         <v>0</v>
       </c>
-      <c r="F142" s="29"/>
-      <c r="G142" s="28">
-        <f>SUM(G123:G141)</f>
+      <c r="F143" s="30"/>
+      <c r="G143" s="31">
+        <f>SUM(G123:G142)</f>
         <v>0</v>
       </c>
-      <c r="H142" s="28">
-        <f>SUM(H123:H141)</f>
+      <c r="H143" s="31">
+        <f>SUM(H123:H142)</f>
         <v>0</v>
       </c>
-      <c r="I142" s="28">
-        <f>SUM(I123:I141)</f>
+      <c r="I143" s="31">
+        <f>SUM(I123:I142)</f>
         <v>0</v>
       </c>
-      <c r="J142" s="28">
-        <f>SUM(J123:J141)</f>
+      <c r="J143" s="31">
+        <f>SUM(J123:J142)</f>
         <v>0</v>
       </c>
-      <c r="K142" s="28">
-        <f>SUM(K123:K141)</f>
+      <c r="K143" s="31">
+        <f>SUM(K123:K142)</f>
         <v>0</v>
       </c>
-      <c r="L142" s="29"/>
-      <c r="M142" s="28">
-        <f>SUM(M123:M141)</f>
+      <c r="L143" s="30"/>
+      <c r="M143" s="31">
+        <f>SUM(M123:M142)</f>
         <v>0</v>
       </c>
-      <c r="N142" s="30">
-        <f>SUM(N123:N141)</f>
+      <c r="N143" s="32">
+        <f>SUM(N123:N142)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:26">
-      <c r="A143" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B143" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C143" s="35"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="41" t="s">
+    <row r="144" spans="1:26">
+      <c r="A144" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F143" s="42" t="s">
+      <c r="B144" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="G143" s="35"/>
-      <c r="H143" s="35"/>
-      <c r="I143" s="35"/>
-      <c r="J143" s="37"/>
-      <c r="K143" s="31" t="s">
+      <c r="C144" s="38"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="L143" s="34" t="s">
+      <c r="F144" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="M143" s="35"/>
-      <c r="N143" s="35"/>
-      <c r="O143" s="37"/>
-      <c r="P143" s="31" t="s">
+      <c r="G144" s="38"/>
+      <c r="H144" s="38"/>
+      <c r="I144" s="38"/>
+      <c r="J144" s="40"/>
+      <c r="K144" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="Q143" s="42" t="s">
+      <c r="L144" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="R143" s="35"/>
-      <c r="S143" s="35"/>
-      <c r="T143" s="35"/>
-      <c r="U143" s="37"/>
-      <c r="V143" s="31" t="s">
+      <c r="M144" s="38"/>
+      <c r="N144" s="38"/>
+      <c r="O144" s="40"/>
+      <c r="P144" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="W143" s="35"/>
-      <c r="X143" s="35"/>
-      <c r="Y143" s="35"/>
-      <c r="Z143" s="37"/>
-    </row>
-    <row r="144" spans="1:26">
-      <c r="A144" s="32"/>
-      <c r="B144" s="32"/>
-      <c r="C144"/>
-      <c r="D144" s="38"/>
-      <c r="E144"/>
-      <c r="F144"/>
-      <c r="G144"/>
-      <c r="H144"/>
-      <c r="I144"/>
-      <c r="J144" s="38"/>
-      <c r="K144" s="32"/>
-      <c r="L144"/>
-      <c r="M144"/>
-      <c r="N144"/>
-      <c r="O144" s="38"/>
-      <c r="P144" s="32"/>
-      <c r="Q144"/>
-      <c r="R144"/>
-      <c r="S144"/>
-      <c r="T144"/>
-      <c r="U144" s="38"/>
-      <c r="V144" s="43" t="s">
+      <c r="Q144" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="W144"/>
-      <c r="X144"/>
-      <c r="Y144"/>
-      <c r="Z144" s="38"/>
+      <c r="R144" s="38"/>
+      <c r="S144" s="38"/>
+      <c r="T144" s="38"/>
+      <c r="U144" s="40"/>
+      <c r="V144" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="W144" s="38"/>
+      <c r="X144" s="38"/>
+      <c r="Y144" s="38"/>
+      <c r="Z144" s="40"/>
     </row>
     <row r="145" spans="1:26">
-      <c r="A145" s="32"/>
-      <c r="B145" s="32"/>
+      <c r="A145" s="35"/>
+      <c r="B145" s="35"/>
       <c r="C145"/>
-      <c r="D145" s="38"/>
+      <c r="D145" s="41"/>
       <c r="E145"/>
       <c r="F145"/>
       <c r="G145"/>
       <c r="H145"/>
       <c r="I145"/>
-      <c r="J145" s="38"/>
-      <c r="K145" s="32"/>
+      <c r="J145" s="41"/>
+      <c r="K145" s="35"/>
       <c r="L145"/>
       <c r="M145"/>
       <c r="N145"/>
-      <c r="O145" s="38"/>
-      <c r="P145" s="32"/>
+      <c r="O145" s="41"/>
+      <c r="P145" s="35"/>
       <c r="Q145"/>
       <c r="R145"/>
       <c r="S145"/>
       <c r="T145"/>
-      <c r="U145" s="38"/>
-      <c r="V145" s="43" t="s">
-        <v>81</v>
+      <c r="U145" s="41"/>
+      <c r="V145" s="46" t="s">
+        <v>82</v>
       </c>
       <c r="W145"/>
-      <c r="X145"/>
-      <c r="Y145"/>
-      <c r="Z145" s="38"/>
+      <c r="X145" s="33"/>
+      <c r="Y145" s="33"/>
+      <c r="Z145" s="41"/>
     </row>
     <row r="146" spans="1:26">
-      <c r="A146" s="32"/>
-      <c r="B146" s="32"/>
+      <c r="A146" s="35"/>
+      <c r="B146" s="35"/>
       <c r="C146"/>
-      <c r="D146" s="38"/>
+      <c r="D146" s="41"/>
       <c r="E146"/>
       <c r="F146"/>
       <c r="G146"/>
       <c r="H146"/>
       <c r="I146"/>
-      <c r="J146" s="38"/>
-      <c r="K146" s="32"/>
+      <c r="J146" s="41"/>
+      <c r="K146" s="35"/>
       <c r="L146"/>
       <c r="M146"/>
       <c r="N146"/>
-      <c r="O146" s="38"/>
-      <c r="P146" s="32"/>
+      <c r="O146" s="41"/>
+      <c r="P146" s="35"/>
       <c r="Q146"/>
       <c r="R146"/>
       <c r="S146"/>
       <c r="T146"/>
-      <c r="U146" s="38"/>
-      <c r="V146" s="43" t="s">
-        <v>82</v>
+      <c r="U146" s="41"/>
+      <c r="V146" s="46" t="s">
+        <v>83</v>
       </c>
       <c r="W146"/>
-      <c r="X146"/>
-      <c r="Y146"/>
-      <c r="Z146" s="38"/>
+      <c r="X146" s="33"/>
+      <c r="Y146" s="33"/>
+      <c r="Z146" s="41"/>
     </row>
     <row r="147" spans="1:26">
-      <c r="A147" s="33"/>
-      <c r="B147" s="33"/>
-      <c r="C147" s="36"/>
-      <c r="D147" s="39"/>
-      <c r="E147" s="36"/>
-      <c r="F147" s="36"/>
-      <c r="G147" s="36"/>
-      <c r="H147" s="36"/>
-      <c r="I147" s="36"/>
-      <c r="J147" s="39"/>
-      <c r="K147" s="33"/>
-      <c r="L147" s="36"/>
-      <c r="M147" s="36"/>
-      <c r="N147" s="36"/>
-      <c r="O147" s="39"/>
-      <c r="P147" s="33"/>
-      <c r="Q147" s="36"/>
-      <c r="R147" s="36"/>
-      <c r="S147" s="36"/>
-      <c r="T147" s="36"/>
-      <c r="U147" s="39"/>
-      <c r="V147" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="W147" s="36"/>
-      <c r="X147" s="36"/>
-      <c r="Y147" s="36"/>
-      <c r="Z147" s="39"/>
+      <c r="A147" s="35"/>
+      <c r="B147" s="35"/>
+      <c r="C147"/>
+      <c r="D147" s="41"/>
+      <c r="E147"/>
+      <c r="F147"/>
+      <c r="G147"/>
+      <c r="H147"/>
+      <c r="I147"/>
+      <c r="J147" s="41"/>
+      <c r="K147" s="35"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147" s="41"/>
+      <c r="P147" s="35"/>
+      <c r="Q147"/>
+      <c r="R147"/>
+      <c r="S147"/>
+      <c r="T147"/>
+      <c r="U147" s="41"/>
+      <c r="V147" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="W147"/>
+      <c r="X147" s="33"/>
+      <c r="Y147" s="33"/>
+      <c r="Z147" s="41"/>
+    </row>
+    <row r="148" spans="1:26">
+      <c r="A148" s="36"/>
+      <c r="B148" s="36"/>
+      <c r="C148" s="39"/>
+      <c r="D148" s="42"/>
+      <c r="E148" s="39"/>
+      <c r="F148" s="39"/>
+      <c r="G148" s="39"/>
+      <c r="H148" s="39"/>
+      <c r="I148" s="39"/>
+      <c r="J148" s="42"/>
+      <c r="K148" s="36"/>
+      <c r="L148" s="39"/>
+      <c r="M148" s="39"/>
+      <c r="N148" s="39"/>
+      <c r="O148" s="42"/>
+      <c r="P148" s="36"/>
+      <c r="Q148" s="39"/>
+      <c r="R148" s="39"/>
+      <c r="S148" s="39"/>
+      <c r="T148" s="39"/>
+      <c r="U148" s="42"/>
+      <c r="V148" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="W148" s="39"/>
+      <c r="X148" s="39"/>
+      <c r="Y148" s="39"/>
+      <c r="Z148" s="42"/>
     </row>
     <row r="149" spans="1:26" customHeight="1" ht="23">
       <c r="A149" s="1" t="s">
@@ -4739,7 +4870,7 @@
         <v>4</v>
       </c>
       <c r="Q153" s="3" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="154" spans="1:26">
@@ -4850,16 +4981,16 @@
       <c r="A160" s="22">
         <v>81</v>
       </c>
-      <c r="B160" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="C160" s="24" t="s">
-        <v>224</v>
-      </c>
-      <c r="D160" s="24" t="s">
+      <c r="B160" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C160" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D160" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E160" s="25"/>
+      <c r="E160" s="26"/>
       <c r="F160" s="13"/>
       <c r="G160" s="13"/>
       <c r="H160" s="13"/>
@@ -4875,10 +5006,10 @@
         <v>82</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="D161" s="20" t="s">
         <v>33</v>
@@ -4899,10 +5030,10 @@
         <v>83</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="D162" s="20" t="s">
         <v>33</v>
@@ -4923,10 +5054,10 @@
         <v>84</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D163" s="20" t="s">
         <v>33</v>
@@ -4947,10 +5078,10 @@
         <v>85</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D164" s="20" t="s">
         <v>33</v>
@@ -4971,10 +5102,10 @@
         <v>86</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D165" s="20" t="s">
         <v>33</v>
@@ -4995,10 +5126,10 @@
         <v>87</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D166" s="20" t="s">
         <v>33</v>
@@ -5019,10 +5150,10 @@
         <v>88</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D167" s="20" t="s">
         <v>33</v>
@@ -5043,10 +5174,10 @@
         <v>89</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D168" s="20" t="s">
         <v>33</v>
@@ -5067,10 +5198,10 @@
         <v>90</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D169" s="20" t="s">
         <v>33</v>
@@ -5091,10 +5222,10 @@
         <v>91</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D170" s="20" t="s">
         <v>33</v>
@@ -5115,10 +5246,10 @@
         <v>92</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D171" s="20" t="s">
         <v>33</v>
@@ -5135,228 +5266,278 @@
       <c r="N171" s="18"/>
     </row>
     <row r="172" spans="1:26">
-      <c r="A172" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="B172" s="24"/>
-      <c r="C172" s="24"/>
-      <c r="D172" s="24"/>
-      <c r="E172" s="47">
-        <f>SUM(E160:E171)</f>
+      <c r="A172" s="24">
+        <v>93</v>
+      </c>
+      <c r="B172" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="C172" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D172" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E172" s="28"/>
+      <c r="F172" s="14"/>
+      <c r="G172" s="14"/>
+      <c r="H172" s="14"/>
+      <c r="I172" s="14"/>
+      <c r="J172" s="14"/>
+      <c r="K172" s="14"/>
+      <c r="L172" s="14"/>
+      <c r="M172" s="14"/>
+      <c r="N172" s="19"/>
+    </row>
+    <row r="173" spans="1:26">
+      <c r="A173" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="B173" s="30"/>
+      <c r="C173" s="30"/>
+      <c r="D173" s="30"/>
+      <c r="E173" s="31">
+        <f>SUM(E160:E172)</f>
         <v>0</v>
       </c>
-      <c r="F172" s="13"/>
-      <c r="G172" s="47">
-        <f>SUM(G160:G171)</f>
+      <c r="F173" s="30"/>
+      <c r="G173" s="31">
+        <f>SUM(G160:G172)</f>
         <v>0</v>
       </c>
-      <c r="H172" s="47">
-        <f>SUM(H160:H171)</f>
+      <c r="H173" s="31">
+        <f>SUM(H160:H172)</f>
         <v>0</v>
       </c>
-      <c r="I172" s="47">
-        <f>SUM(I160:I171)</f>
+      <c r="I173" s="31">
+        <f>SUM(I160:I172)</f>
         <v>0</v>
       </c>
-      <c r="J172" s="47">
-        <f>SUM(J160:J171)</f>
+      <c r="J173" s="31">
+        <f>SUM(J160:J172)</f>
         <v>0</v>
       </c>
-      <c r="K172" s="47">
-        <f>SUM(K160:K171)</f>
+      <c r="K173" s="31">
+        <f>SUM(K160:K172)</f>
         <v>0</v>
       </c>
-      <c r="L172" s="13"/>
-      <c r="M172" s="47">
-        <f>SUM(M160:M171)</f>
+      <c r="L173" s="30"/>
+      <c r="M173" s="31">
+        <f>SUM(M160:M172)</f>
         <v>0</v>
       </c>
-      <c r="N172" s="48">
-        <f>SUM(N160:N171)</f>
+      <c r="N173" s="32">
+        <f>SUM(N160:N172)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:26">
-      <c r="A173" s="46"/>
-      <c r="B173" s="14"/>
-      <c r="C173" s="14"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
-      <c r="H173" s="14"/>
-      <c r="I173" s="14"/>
-      <c r="J173" s="14"/>
-      <c r="K173" s="14"/>
-      <c r="L173" s="14"/>
-      <c r="M173" s="14"/>
-      <c r="N173" s="19"/>
-    </row>
     <row r="174" spans="1:26">
-      <c r="A174" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B174" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C174" s="35"/>
-      <c r="D174" s="37"/>
-      <c r="E174" s="41" t="s">
+      <c r="A174" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B174" s="30"/>
+      <c r="C174" s="30"/>
+      <c r="D174" s="30"/>
+      <c r="E174" s="31">
+        <f>E32+E69+E106+E143+E173</f>
+        <v>0</v>
+      </c>
+      <c r="F174" s="30"/>
+      <c r="G174" s="31">
+        <f>G32+G69+G106+G143+G173</f>
+        <v>0</v>
+      </c>
+      <c r="H174" s="31">
+        <f>H32+H69+H106+H143+H173</f>
+        <v>0</v>
+      </c>
+      <c r="I174" s="31">
+        <f>I32+I69+I106+I143+I173</f>
+        <v>0</v>
+      </c>
+      <c r="J174" s="31">
+        <f>J32+J69+J106+J143+J173</f>
+        <v>0</v>
+      </c>
+      <c r="K174" s="31">
+        <f>K32+K69+K106+K143+K173</f>
+        <v>0</v>
+      </c>
+      <c r="L174" s="30"/>
+      <c r="M174" s="31">
+        <f>M32+M69+M106+M143+M173</f>
+        <v>0</v>
+      </c>
+      <c r="N174" s="32">
+        <f>N32+N69+N106+N143+N173</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:26">
+      <c r="A175" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F174" s="42" t="s">
+      <c r="B175" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="G174" s="35"/>
-      <c r="H174" s="35"/>
-      <c r="I174" s="35"/>
-      <c r="J174" s="37"/>
-      <c r="K174" s="31" t="s">
+      <c r="C175" s="38"/>
+      <c r="D175" s="40"/>
+      <c r="E175" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="L174" s="34" t="s">
+      <c r="F175" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="M174" s="35"/>
-      <c r="N174" s="35"/>
-      <c r="O174" s="37"/>
-      <c r="P174" s="31" t="s">
+      <c r="G175" s="38"/>
+      <c r="H175" s="38"/>
+      <c r="I175" s="38"/>
+      <c r="J175" s="40"/>
+      <c r="K175" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="Q174" s="42" t="s">
+      <c r="L175" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="R174" s="35"/>
-      <c r="S174" s="35"/>
-      <c r="T174" s="35"/>
-      <c r="U174" s="37"/>
-      <c r="V174" s="31" t="s">
+      <c r="M175" s="38"/>
+      <c r="N175" s="38"/>
+      <c r="O175" s="40"/>
+      <c r="P175" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="W174" s="35"/>
-      <c r="X174" s="35"/>
-      <c r="Y174" s="35"/>
-      <c r="Z174" s="37"/>
-    </row>
-    <row r="175" spans="1:26">
-      <c r="A175" s="32"/>
-      <c r="B175" s="32"/>
-      <c r="C175"/>
-      <c r="D175" s="38"/>
-      <c r="E175"/>
-      <c r="F175"/>
-      <c r="G175"/>
-      <c r="H175"/>
-      <c r="I175"/>
-      <c r="J175" s="38"/>
-      <c r="K175" s="32"/>
-      <c r="L175"/>
-      <c r="M175"/>
-      <c r="N175"/>
-      <c r="O175" s="38"/>
-      <c r="P175" s="32"/>
-      <c r="Q175"/>
-      <c r="R175"/>
-      <c r="S175"/>
-      <c r="T175"/>
-      <c r="U175" s="38"/>
-      <c r="V175" s="43" t="s">
+      <c r="Q175" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="W175"/>
-      <c r="X175"/>
-      <c r="Y175"/>
-      <c r="Z175" s="38"/>
+      <c r="R175" s="38"/>
+      <c r="S175" s="38"/>
+      <c r="T175" s="38"/>
+      <c r="U175" s="40"/>
+      <c r="V175" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="W175" s="38"/>
+      <c r="X175" s="38"/>
+      <c r="Y175" s="38"/>
+      <c r="Z175" s="40"/>
     </row>
     <row r="176" spans="1:26">
-      <c r="A176" s="32"/>
-      <c r="B176" s="32"/>
+      <c r="A176" s="35"/>
+      <c r="B176" s="35"/>
       <c r="C176"/>
-      <c r="D176" s="38"/>
+      <c r="D176" s="41"/>
       <c r="E176"/>
       <c r="F176"/>
       <c r="G176"/>
       <c r="H176"/>
       <c r="I176"/>
-      <c r="J176" s="38"/>
-      <c r="K176" s="32"/>
+      <c r="J176" s="41"/>
+      <c r="K176" s="35"/>
       <c r="L176"/>
       <c r="M176"/>
       <c r="N176"/>
-      <c r="O176" s="38"/>
-      <c r="P176" s="32"/>
+      <c r="O176" s="41"/>
+      <c r="P176" s="35"/>
       <c r="Q176"/>
       <c r="R176"/>
       <c r="S176"/>
       <c r="T176"/>
-      <c r="U176" s="38"/>
-      <c r="V176" s="43" t="s">
-        <v>81</v>
+      <c r="U176" s="41"/>
+      <c r="V176" s="46" t="s">
+        <v>82</v>
       </c>
       <c r="W176"/>
-      <c r="X176"/>
-      <c r="Y176"/>
-      <c r="Z176" s="38"/>
+      <c r="X176" s="33"/>
+      <c r="Y176" s="33"/>
+      <c r="Z176" s="41"/>
     </row>
     <row r="177" spans="1:26">
-      <c r="A177" s="32"/>
-      <c r="B177" s="32"/>
+      <c r="A177" s="35"/>
+      <c r="B177" s="35"/>
       <c r="C177"/>
-      <c r="D177" s="38"/>
+      <c r="D177" s="41"/>
       <c r="E177"/>
       <c r="F177"/>
       <c r="G177"/>
       <c r="H177"/>
       <c r="I177"/>
-      <c r="J177" s="38"/>
-      <c r="K177" s="32"/>
+      <c r="J177" s="41"/>
+      <c r="K177" s="35"/>
       <c r="L177"/>
       <c r="M177"/>
       <c r="N177"/>
-      <c r="O177" s="38"/>
-      <c r="P177" s="32"/>
+      <c r="O177" s="41"/>
+      <c r="P177" s="35"/>
       <c r="Q177"/>
       <c r="R177"/>
       <c r="S177"/>
       <c r="T177"/>
-      <c r="U177" s="38"/>
-      <c r="V177" s="43" t="s">
-        <v>82</v>
+      <c r="U177" s="41"/>
+      <c r="V177" s="46" t="s">
+        <v>83</v>
       </c>
       <c r="W177"/>
-      <c r="X177"/>
-      <c r="Y177"/>
-      <c r="Z177" s="38"/>
+      <c r="X177" s="33"/>
+      <c r="Y177" s="33"/>
+      <c r="Z177" s="41"/>
     </row>
     <row r="178" spans="1:26">
-      <c r="A178" s="33"/>
-      <c r="B178" s="33"/>
-      <c r="C178" s="36"/>
-      <c r="D178" s="39"/>
-      <c r="E178" s="36"/>
-      <c r="F178" s="36"/>
-      <c r="G178" s="36"/>
-      <c r="H178" s="36"/>
-      <c r="I178" s="36"/>
-      <c r="J178" s="39"/>
-      <c r="K178" s="33"/>
-      <c r="L178" s="36"/>
-      <c r="M178" s="36"/>
-      <c r="N178" s="36"/>
-      <c r="O178" s="39"/>
-      <c r="P178" s="33"/>
-      <c r="Q178" s="36"/>
-      <c r="R178" s="36"/>
-      <c r="S178" s="36"/>
-      <c r="T178" s="36"/>
-      <c r="U178" s="39"/>
-      <c r="V178" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="W178" s="36"/>
-      <c r="X178" s="36"/>
-      <c r="Y178" s="36"/>
-      <c r="Z178" s="39"/>
+      <c r="A178" s="35"/>
+      <c r="B178" s="35"/>
+      <c r="C178"/>
+      <c r="D178" s="41"/>
+      <c r="E178"/>
+      <c r="F178"/>
+      <c r="G178"/>
+      <c r="H178"/>
+      <c r="I178"/>
+      <c r="J178" s="41"/>
+      <c r="K178" s="35"/>
+      <c r="L178"/>
+      <c r="M178"/>
+      <c r="N178"/>
+      <c r="O178" s="41"/>
+      <c r="P178" s="35"/>
+      <c r="Q178"/>
+      <c r="R178"/>
+      <c r="S178"/>
+      <c r="T178"/>
+      <c r="U178" s="41"/>
+      <c r="V178" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="W178"/>
+      <c r="X178" s="33"/>
+      <c r="Y178" s="33"/>
+      <c r="Z178" s="41"/>
+    </row>
+    <row r="179" spans="1:26">
+      <c r="A179" s="36"/>
+      <c r="B179" s="36"/>
+      <c r="C179" s="39"/>
+      <c r="D179" s="42"/>
+      <c r="E179" s="39"/>
+      <c r="F179" s="39"/>
+      <c r="G179" s="39"/>
+      <c r="H179" s="39"/>
+      <c r="I179" s="39"/>
+      <c r="J179" s="42"/>
+      <c r="K179" s="36"/>
+      <c r="L179" s="39"/>
+      <c r="M179" s="39"/>
+      <c r="N179" s="39"/>
+      <c r="O179" s="42"/>
+      <c r="P179" s="36"/>
+      <c r="Q179" s="39"/>
+      <c r="R179" s="39"/>
+      <c r="S179" s="39"/>
+      <c r="T179" s="39"/>
+      <c r="U179" s="42"/>
+      <c r="V179" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="W179" s="39"/>
+      <c r="X179" s="39"/>
+      <c r="Y179" s="39"/>
+      <c r="Z179" s="42"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -5405,22 +5586,23 @@
     <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="G31:G31"/>
-    <mergeCell ref="H31:H31"/>
-    <mergeCell ref="I31:I31"/>
-    <mergeCell ref="J31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:M31"/>
-    <mergeCell ref="N31:N31"/>
-    <mergeCell ref="B32:D33"/>
-    <mergeCell ref="F32:J33"/>
-    <mergeCell ref="L32:O33"/>
-    <mergeCell ref="Q32:U33"/>
-    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:G32"/>
+    <mergeCell ref="H32:H32"/>
+    <mergeCell ref="I32:I32"/>
+    <mergeCell ref="J32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:M32"/>
+    <mergeCell ref="N32:N32"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="F33:J34"/>
+    <mergeCell ref="L33:O34"/>
+    <mergeCell ref="Q33:U34"/>
     <mergeCell ref="V34:W34"/>
     <mergeCell ref="V35:W35"/>
     <mergeCell ref="V36:W36"/>
+    <mergeCell ref="V37:W37"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="B41:I41"/>
@@ -5465,22 +5647,23 @@
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="E67:F67"/>
     <mergeCell ref="E68:F68"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="G68:G68"/>
-    <mergeCell ref="H68:H68"/>
-    <mergeCell ref="I68:I68"/>
-    <mergeCell ref="J68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M68:M68"/>
-    <mergeCell ref="N68:N68"/>
-    <mergeCell ref="B69:D70"/>
-    <mergeCell ref="F69:J70"/>
-    <mergeCell ref="L69:O70"/>
-    <mergeCell ref="Q69:U70"/>
-    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="G69:G69"/>
+    <mergeCell ref="H69:H69"/>
+    <mergeCell ref="I69:I69"/>
+    <mergeCell ref="J69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="M69:M69"/>
+    <mergeCell ref="N69:N69"/>
+    <mergeCell ref="B70:D71"/>
+    <mergeCell ref="F70:J71"/>
+    <mergeCell ref="L70:O71"/>
+    <mergeCell ref="Q70:U71"/>
     <mergeCell ref="V71:W71"/>
     <mergeCell ref="V72:W72"/>
     <mergeCell ref="V73:W73"/>
+    <mergeCell ref="V74:W74"/>
     <mergeCell ref="A75:C75"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="B78:I78"/>
@@ -5525,22 +5708,23 @@
     <mergeCell ref="E103:F103"/>
     <mergeCell ref="E104:F104"/>
     <mergeCell ref="E105:F105"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="G105:G105"/>
-    <mergeCell ref="H105:H105"/>
-    <mergeCell ref="I105:I105"/>
-    <mergeCell ref="J105:J105"/>
-    <mergeCell ref="K105:L105"/>
-    <mergeCell ref="M105:M105"/>
-    <mergeCell ref="N105:N105"/>
-    <mergeCell ref="B106:D107"/>
-    <mergeCell ref="F106:J107"/>
-    <mergeCell ref="L106:O107"/>
-    <mergeCell ref="Q106:U107"/>
-    <mergeCell ref="V107:W107"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="E106:F106"/>
+    <mergeCell ref="G106:G106"/>
+    <mergeCell ref="H106:H106"/>
+    <mergeCell ref="I106:I106"/>
+    <mergeCell ref="J106:J106"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="M106:M106"/>
+    <mergeCell ref="N106:N106"/>
+    <mergeCell ref="B107:D108"/>
+    <mergeCell ref="F107:J108"/>
+    <mergeCell ref="L107:O108"/>
+    <mergeCell ref="Q107:U108"/>
     <mergeCell ref="V108:W108"/>
     <mergeCell ref="V109:W109"/>
     <mergeCell ref="V110:W110"/>
+    <mergeCell ref="V111:W111"/>
     <mergeCell ref="A112:C112"/>
     <mergeCell ref="A113:D113"/>
     <mergeCell ref="B115:I115"/>
@@ -5585,22 +5769,23 @@
     <mergeCell ref="E140:F140"/>
     <mergeCell ref="E141:F141"/>
     <mergeCell ref="E142:F142"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="G142:G142"/>
-    <mergeCell ref="H142:H142"/>
-    <mergeCell ref="I142:I142"/>
-    <mergeCell ref="J142:J142"/>
-    <mergeCell ref="K142:L142"/>
-    <mergeCell ref="M142:M142"/>
-    <mergeCell ref="N142:N142"/>
-    <mergeCell ref="B143:D144"/>
-    <mergeCell ref="F143:J144"/>
-    <mergeCell ref="L143:O144"/>
-    <mergeCell ref="Q143:U144"/>
-    <mergeCell ref="V144:W144"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="E143:F143"/>
+    <mergeCell ref="G143:G143"/>
+    <mergeCell ref="H143:H143"/>
+    <mergeCell ref="I143:I143"/>
+    <mergeCell ref="J143:J143"/>
+    <mergeCell ref="K143:L143"/>
+    <mergeCell ref="M143:M143"/>
+    <mergeCell ref="N143:N143"/>
+    <mergeCell ref="B144:D145"/>
+    <mergeCell ref="F144:J145"/>
+    <mergeCell ref="L144:O145"/>
+    <mergeCell ref="Q144:U145"/>
     <mergeCell ref="V145:W145"/>
     <mergeCell ref="V146:W146"/>
     <mergeCell ref="V147:W147"/>
+    <mergeCell ref="V148:W148"/>
     <mergeCell ref="A149:C149"/>
     <mergeCell ref="A150:D150"/>
     <mergeCell ref="B152:I152"/>
@@ -5638,23 +5823,32 @@
     <mergeCell ref="E170:F170"/>
     <mergeCell ref="E171:F171"/>
     <mergeCell ref="E172:F172"/>
-    <mergeCell ref="A172:D172"/>
     <mergeCell ref="A173:D173"/>
-    <mergeCell ref="G172:G172"/>
-    <mergeCell ref="H172:H172"/>
-    <mergeCell ref="I172:I172"/>
-    <mergeCell ref="J172:J172"/>
-    <mergeCell ref="K172:L172"/>
-    <mergeCell ref="M172:M172"/>
-    <mergeCell ref="N172:N172"/>
-    <mergeCell ref="B174:D175"/>
-    <mergeCell ref="F174:J175"/>
-    <mergeCell ref="L174:O175"/>
-    <mergeCell ref="Q174:U175"/>
-    <mergeCell ref="V175:W175"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:G173"/>
+    <mergeCell ref="H173:H173"/>
+    <mergeCell ref="I173:I173"/>
+    <mergeCell ref="J173:J173"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="M173:M173"/>
+    <mergeCell ref="N173:N173"/>
+    <mergeCell ref="A174:D174"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:G174"/>
+    <mergeCell ref="H174:H174"/>
+    <mergeCell ref="I174:I174"/>
+    <mergeCell ref="J174:J174"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="M174:M174"/>
+    <mergeCell ref="N174:N174"/>
+    <mergeCell ref="B175:D176"/>
+    <mergeCell ref="F175:J176"/>
+    <mergeCell ref="L175:O176"/>
+    <mergeCell ref="Q175:U176"/>
     <mergeCell ref="V176:W176"/>
     <mergeCell ref="V177:W177"/>
     <mergeCell ref="V178:W178"/>
+    <mergeCell ref="V179:W179"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.25" right="1" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/public/reports/payroll.xlsx
+++ b/public/reports/payroll.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
   <si>
     <t>P   A   Y   R   O   L   L</t>
   </si>
@@ -53,9 +53,6 @@
     <t>COMPENSATION</t>
   </si>
   <si>
-    <t>DEDUCTION</t>
-  </si>
-  <si>
     <t>Monthly Salary</t>
   </si>
   <si>
@@ -65,24 +62,12 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Pag-ibig</t>
-  </si>
-  <si>
-    <t>Philhealth</t>
-  </si>
-  <si>
     <t>PERA</t>
   </si>
   <si>
     <t>Bonus</t>
   </si>
   <si>
-    <t>Modified Pag-ibig</t>
-  </si>
-  <si>
-    <t>Contribution</t>
-  </si>
-  <si>
     <t>PBB</t>
   </si>
   <si>
@@ -98,6 +83,9 @@
     <t>AP1</t>
   </si>
   <si>
+    <t>36,323.00</t>
+  </si>
+  <si>
     <t>ABLAO, ROBERTO V.</t>
   </si>
   <si>
@@ -119,6 +107,9 @@
     <t>INST1</t>
   </si>
   <si>
+    <t>28,117.00</t>
+  </si>
+  <si>
     <t>AGUIRRE, BASILIO F.</t>
   </si>
   <si>
@@ -128,6 +119,9 @@
     <t>AP4</t>
   </si>
   <si>
+    <t>47,338.00</t>
+  </si>
+  <si>
     <t>ALIBEN, SHERIL A.</t>
   </si>
   <si>
@@ -143,6 +137,9 @@
     <t>AP3</t>
   </si>
   <si>
+    <t>43,311.00</t>
+  </si>
+  <si>
     <t>ALMONTE, RICO D.</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
     <t>APRO3</t>
   </si>
   <si>
+    <t>67,837.00</t>
+  </si>
+  <si>
     <t>ARTIAGA, MA. EXPEDITA B.</t>
   </si>
   <si>
@@ -176,6 +176,9 @@
     <t>SIP00364</t>
   </si>
   <si>
+    <t>33,953.00</t>
+  </si>
+  <si>
     <t>BELLERE, ARCE D.</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
     <t>APRO5</t>
   </si>
   <si>
+    <t>85,975.00</t>
+  </si>
+  <si>
     <t>CAMBA, CESAR ARMANDO S.</t>
   </si>
   <si>
@@ -212,12 +218,18 @@
     <t>INST2</t>
   </si>
   <si>
+    <t>28,589.00</t>
+  </si>
+  <si>
     <t>CANDELARIA, ROMULO M.</t>
   </si>
   <si>
     <t>95-036</t>
   </si>
   <si>
+    <t>30,547.00</t>
+  </si>
+  <si>
     <t>CASTUERA, ROWEL M.</t>
   </si>
   <si>
@@ -227,6 +239,9 @@
     <t>APRO2</t>
   </si>
   <si>
+    <t>60,389.00</t>
+  </si>
+  <si>
     <t>DE LEON, MARIA AILEEN P.</t>
   </si>
   <si>
@@ -296,24 +311,27 @@
     <t>UNIPROF</t>
   </si>
   <si>
+    <t>204,054.00</t>
+  </si>
+  <si>
     <t>EJE, SALVACION A.</t>
   </si>
   <si>
     <t>95-038</t>
   </si>
   <si>
+    <t>EVANGELIO, CHARLES Z.</t>
+  </si>
+  <si>
+    <t>SIP00267</t>
+  </si>
+  <si>
     <t>EVANGELIO, CARLOS N.</t>
   </si>
   <si>
     <t>85-017</t>
   </si>
   <si>
-    <t>EVANGELIO, CHARLES Z.</t>
-  </si>
-  <si>
-    <t>SIP00267</t>
-  </si>
-  <si>
     <t>GABON, DENNIS C.</t>
   </si>
   <si>
@@ -323,6 +341,9 @@
     <t>AP2</t>
   </si>
   <si>
+    <t>39,650.00</t>
+  </si>
+  <si>
     <t>GONZALES, JOSEPHINE A.</t>
   </si>
   <si>
@@ -335,6 +356,9 @@
     <t>15-188</t>
   </si>
   <si>
+    <t>26,336.00</t>
+  </si>
+  <si>
     <t>LLAGAS, JULIE B.</t>
   </si>
   <si>
@@ -392,6 +416,9 @@
     <t>INST3</t>
   </si>
   <si>
+    <t>33,297.00</t>
+  </si>
+  <si>
     <t>NAVARROZA, JOSEPH R.</t>
   </si>
   <si>
@@ -461,6 +488,9 @@
     <t>APRO1</t>
   </si>
   <si>
+    <t>53,746.00</t>
+  </si>
+  <si>
     <t>RESURRECCION, TESSIE T.</t>
   </si>
   <si>
@@ -512,6 +542,9 @@
     <t>PROF5</t>
   </si>
   <si>
+    <t>159,804.00</t>
+  </si>
+  <si>
     <t>ABOGADO, REYMAR C.</t>
   </si>
   <si>
@@ -521,6 +554,9 @@
     <t>ADA1</t>
   </si>
   <si>
+    <t>12,756.00</t>
+  </si>
+  <si>
     <t>ARAGON, MARIA MINERVA D.</t>
   </si>
   <si>
@@ -530,6 +566,9 @@
     <t>ADAS3</t>
   </si>
   <si>
+    <t>19,715.00</t>
+  </si>
+  <si>
     <t>BALANE, FRANCISCO S.</t>
   </si>
   <si>
@@ -539,6 +578,9 @@
     <t>SECG1</t>
   </si>
   <si>
+    <t>14,319.00</t>
+  </si>
+  <si>
     <t>BALIZA, ERNESTO H.</t>
   </si>
   <si>
@@ -548,12 +590,27 @@
     <t>ADA4</t>
   </si>
   <si>
+    <t>15,192.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">        Total Page 3</t>
   </si>
   <si>
     <t>Sheet 4 of  5 Sheets</t>
   </si>
   <si>
+    <t>CASULLA, ORLANDO E.</t>
+  </si>
+  <si>
+    <t>13-073</t>
+  </si>
+  <si>
+    <t>ADA2</t>
+  </si>
+  <si>
+    <t>13,493.00</t>
+  </si>
+  <si>
     <t>CASULLA, SONIA M.</t>
   </si>
   <si>
@@ -563,13 +620,7 @@
     <t>ADA3</t>
   </si>
   <si>
-    <t>CASULLA, ORLANDO E.</t>
-  </si>
-  <si>
-    <t>13-073</t>
-  </si>
-  <si>
-    <t>ADA2</t>
+    <t>13,781.00</t>
   </si>
   <si>
     <t>DELOS SANTOS, IRENEO S.</t>
@@ -581,6 +632,9 @@
     <t>ADOF2</t>
   </si>
   <si>
+    <t>25,952.00</t>
+  </si>
+  <si>
     <t>DON, DIANNE M.</t>
   </si>
   <si>
@@ -623,6 +677,9 @@
     <t>ADA6</t>
   </si>
   <si>
+    <t>17,092.00</t>
+  </si>
+  <si>
     <t>MIDEM, AGNES M.</t>
   </si>
   <si>
@@ -665,6 +722,9 @@
     <t>ADA5</t>
   </si>
   <si>
+    <t>16,115.00</t>
+  </si>
+  <si>
     <t>SAMARISTA, ZANDRO A.</t>
   </si>
   <si>
@@ -675,6 +735,9 @@
   </si>
   <si>
     <t>09-062</t>
+  </si>
+  <si>
+    <t>15,393.00</t>
   </si>
   <si>
     <t>TIBI, DANIEL M.</t>
@@ -1625,13 +1688,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="9"/>
@@ -1639,24 +1696,16 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="17" t="s">
-        <v>17</v>
+      <c r="J9" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1667,21 +1716,13 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="18"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="10"/>
@@ -1692,256 +1733,232 @@
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="22">
         <v>1</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>22</v>
+      </c>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="23">
         <v>2</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="21"/>
+        <v>21</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="18"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="23">
         <v>3</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="21"/>
+        <v>21</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="23">
         <v>4</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="18"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="23">
         <v>5</v>
       </c>
       <c r="B16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="21"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="18"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="23">
         <v>6</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="18"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="23">
         <v>7</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="E18" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="21"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="18"/>
+      <c r="J18" s="18"/>
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="23">
         <v>8</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="D19" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="18"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="23">
         <v>9</v>
       </c>
       <c r="B20" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="D20" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="18"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="23">
         <v>10</v>
       </c>
       <c r="B21" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="D21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="E21" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="21"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="23">
@@ -1954,18 +1971,16 @@
         <v>50</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="18"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="23">
@@ -1978,214 +1993,196 @@
         <v>52</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="21"/>
+        <v>21</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="18"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="23">
         <v>13</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="23">
         <v>14</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="18"/>
+      <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="23">
         <v>15</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="18"/>
+      <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="23">
         <v>16</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="21"/>
+        <v>21</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="18"/>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="23">
         <v>17</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="18"/>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:26">
       <c r="A29" s="23">
         <v>18</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C29" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="21"/>
+      <c r="E29" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="18"/>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:26">
       <c r="A30" s="23">
         <v>19</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="21"/>
+        <v>73</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>74</v>
+      </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="18"/>
+      <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:26">
       <c r="A31" s="24">
         <v>20</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="19"/>
+      <c r="J31" s="19"/>
     </row>
     <row r="32" spans="1:26">
       <c r="A32" s="29" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -2207,64 +2204,51 @@
         <f>SUM(I12:I31)</f>
         <v>0</v>
       </c>
-      <c r="J32" s="31">
+      <c r="J32" s="32">
         <f>SUM(J12:J31)</f>
         <v>0</v>
       </c>
-      <c r="K32" s="31">
-        <f>SUM(K12:K31)</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="30"/>
-      <c r="M32" s="31">
-        <f>SUM(M12:M31)</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="32">
-        <f>SUM(N12:N31)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="33" spans="1:26">
       <c r="A33" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="40"/>
       <c r="E33" s="44" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
       <c r="I33" s="38"/>
       <c r="J33" s="40"/>
       <c r="K33" s="34" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M33" s="38"/>
       <c r="N33" s="38"/>
       <c r="O33" s="40"/>
       <c r="P33" s="34" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q33" s="45" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R33" s="38"/>
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
       <c r="U33" s="40"/>
       <c r="V33" s="34" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="W33" s="38"/>
       <c r="X33" s="38"/>
@@ -2294,7 +2278,7 @@
       <c r="T34"/>
       <c r="U34" s="41"/>
       <c r="V34" s="46" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="W34"/>
       <c r="X34" s="33"/>
@@ -2324,7 +2308,7 @@
       <c r="T35"/>
       <c r="U35" s="41"/>
       <c r="V35" s="46" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="W35"/>
       <c r="X35" s="33"/>
@@ -2354,7 +2338,7 @@
       <c r="T36"/>
       <c r="U36" s="41"/>
       <c r="V36" s="46" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="W36"/>
       <c r="X36" s="33"/>
@@ -2384,7 +2368,7 @@
       <c r="T37" s="39"/>
       <c r="U37" s="42"/>
       <c r="V37" s="47" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="W37" s="39"/>
       <c r="X37" s="39"/>
@@ -2415,7 +2399,7 @@
         <v>4</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:26">
@@ -2444,13 +2428,7 @@
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="16"/>
+      <c r="J45" s="16"/>
     </row>
     <row r="46" spans="1:26">
       <c r="A46" s="9"/>
@@ -2458,24 +2436,16 @@
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" s="5"/>
       <c r="G46" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K46" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="17" t="s">
-        <v>17</v>
+      <c r="J46" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:26">
@@ -2486,21 +2456,13 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" s="5"/>
-      <c r="M47" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N47" s="18"/>
+      <c r="J47" s="18"/>
     </row>
     <row r="48" spans="1:26">
       <c r="A48" s="10"/>
@@ -2511,500 +2473,456 @@
       <c r="F48" s="14"/>
       <c r="G48" s="14"/>
       <c r="H48" s="15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="14"/>
-      <c r="N48" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="J48" s="19"/>
     </row>
     <row r="49" spans="1:26">
       <c r="A49" s="22">
         <v>21</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>34</v>
+      </c>
       <c r="F49" s="13"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="16"/>
+      <c r="J49" s="16"/>
     </row>
     <row r="50" spans="1:26">
       <c r="A50" s="23">
         <v>22</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D50" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="18"/>
+      <c r="J50" s="18"/>
     </row>
     <row r="51" spans="1:26">
       <c r="A51" s="23">
         <v>23</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C51" s="20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" s="21"/>
+        <v>97</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>98</v>
+      </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="18"/>
+      <c r="J51" s="18"/>
     </row>
     <row r="52" spans="1:26">
       <c r="A52" s="23">
         <v>24</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E52" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="18"/>
+      <c r="J52" s="18"/>
     </row>
     <row r="53" spans="1:26">
       <c r="A53" s="23">
         <v>25</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C53" s="20" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="18"/>
+      <c r="J53" s="18"/>
     </row>
     <row r="54" spans="1:26">
       <c r="A54" s="23">
         <v>26</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C54" s="20" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="18"/>
+      <c r="J54" s="18"/>
     </row>
     <row r="55" spans="1:26">
       <c r="A55" s="23">
         <v>27</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D55" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>108</v>
+      </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="18"/>
+      <c r="J55" s="18"/>
     </row>
     <row r="56" spans="1:26">
       <c r="A56" s="23">
         <v>28</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D56" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E56" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E56" s="21"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="18"/>
+      <c r="J56" s="18"/>
     </row>
     <row r="57" spans="1:26">
       <c r="A57" s="23">
         <v>29</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D57" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="18"/>
+      <c r="J57" s="18"/>
     </row>
     <row r="58" spans="1:26">
       <c r="A58" s="23">
         <v>30</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D58" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E58" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="18"/>
+      <c r="J58" s="18"/>
     </row>
     <row r="59" spans="1:26">
       <c r="A59" s="23">
         <v>31</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C59" s="20" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="18"/>
+      <c r="J59" s="18"/>
     </row>
     <row r="60" spans="1:26">
       <c r="A60" s="23">
         <v>32</v>
       </c>
       <c r="B60" s="20" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E60" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="18"/>
+      <c r="J60" s="18"/>
     </row>
     <row r="61" spans="1:26">
       <c r="A61" s="23">
         <v>33</v>
       </c>
       <c r="B61" s="20" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D61" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="18"/>
+      <c r="J61" s="18"/>
     </row>
     <row r="62" spans="1:26">
       <c r="A62" s="23">
         <v>34</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D62" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E62" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="F62" s="5"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="18"/>
+      <c r="J62" s="18"/>
     </row>
     <row r="63" spans="1:26">
       <c r="A63" s="23">
         <v>35</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E63" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="E63" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="18"/>
+      <c r="J63" s="18"/>
     </row>
     <row r="64" spans="1:26">
       <c r="A64" s="23">
         <v>36</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E64" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="18"/>
+      <c r="J64" s="18"/>
     </row>
     <row r="65" spans="1:26">
       <c r="A65" s="23">
         <v>37</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C65" s="20" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D65" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E65" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="18"/>
+      <c r="J65" s="18"/>
     </row>
     <row r="66" spans="1:26">
       <c r="A66" s="23">
         <v>38</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D66" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="E66" s="21"/>
+        <v>132</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="18"/>
+      <c r="J66" s="18"/>
     </row>
     <row r="67" spans="1:26">
       <c r="A67" s="23">
         <v>39</v>
       </c>
       <c r="B67" s="20" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C67" s="20" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D67" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="21"/>
+        <v>21</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="18"/>
+      <c r="J67" s="18"/>
     </row>
     <row r="68" spans="1:26">
       <c r="A68" s="24">
         <v>40</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="E68" s="28"/>
+        <v>132</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="14"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="19"/>
+      <c r="J68" s="19"/>
     </row>
     <row r="69" spans="1:26">
       <c r="A69" s="29" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
@@ -3026,64 +2944,51 @@
         <f>SUM(I49:I68)</f>
         <v>0</v>
       </c>
-      <c r="J69" s="31">
+      <c r="J69" s="32">
         <f>SUM(J49:J68)</f>
         <v>0</v>
       </c>
-      <c r="K69" s="31">
-        <f>SUM(K49:K68)</f>
-        <v>0</v>
-      </c>
-      <c r="L69" s="30"/>
-      <c r="M69" s="31">
-        <f>SUM(M49:M68)</f>
-        <v>0</v>
-      </c>
-      <c r="N69" s="32">
-        <f>SUM(N49:N68)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="70" spans="1:26">
       <c r="A70" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C70" s="38"/>
       <c r="D70" s="40"/>
       <c r="E70" s="44" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F70" s="45" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
       <c r="I70" s="38"/>
       <c r="J70" s="40"/>
       <c r="K70" s="34" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L70" s="37" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M70" s="38"/>
       <c r="N70" s="38"/>
       <c r="O70" s="40"/>
       <c r="P70" s="34" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q70" s="45" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R70" s="38"/>
       <c r="S70" s="38"/>
       <c r="T70" s="38"/>
       <c r="U70" s="40"/>
       <c r="V70" s="34" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="W70" s="38"/>
       <c r="X70" s="38"/>
@@ -3113,7 +3018,7 @@
       <c r="T71"/>
       <c r="U71" s="41"/>
       <c r="V71" s="46" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="W71"/>
       <c r="X71" s="33"/>
@@ -3143,7 +3048,7 @@
       <c r="T72"/>
       <c r="U72" s="41"/>
       <c r="V72" s="46" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="W72"/>
       <c r="X72" s="33"/>
@@ -3173,7 +3078,7 @@
       <c r="T73"/>
       <c r="U73" s="41"/>
       <c r="V73" s="46" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="W73"/>
       <c r="X73" s="33"/>
@@ -3203,7 +3108,7 @@
       <c r="T74" s="39"/>
       <c r="U74" s="42"/>
       <c r="V74" s="47" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="W74" s="39"/>
       <c r="X74" s="39"/>
@@ -3234,7 +3139,7 @@
         <v>4</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="1:26">
@@ -3263,13 +3168,7 @@
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="16"/>
+      <c r="J82" s="16"/>
     </row>
     <row r="83" spans="1:26">
       <c r="A83" s="9"/>
@@ -3277,24 +3176,16 @@
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
-      <c r="J83" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K83" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L83" s="5"/>
-      <c r="M83" s="5"/>
-      <c r="N83" s="17" t="s">
-        <v>17</v>
+      <c r="J83" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:26">
@@ -3305,21 +3196,13 @@
       <c r="E84" s="5"/>
       <c r="F84" s="5"/>
       <c r="G84" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L84" s="5"/>
-      <c r="M84" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N84" s="18"/>
+      <c r="J84" s="18"/>
     </row>
     <row r="85" spans="1:26">
       <c r="A85" s="10"/>
@@ -3330,500 +3213,456 @@
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
       <c r="H85" s="15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I85" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J85" s="14"/>
-      <c r="K85" s="14"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="J85" s="19"/>
     </row>
     <row r="86" spans="1:26">
       <c r="A86" s="22">
         <v>41</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E86" s="26"/>
+        <v>60</v>
+      </c>
+      <c r="E86" s="26" t="s">
+        <v>61</v>
+      </c>
       <c r="F86" s="13"/>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="16"/>
+      <c r="J86" s="16"/>
     </row>
     <row r="87" spans="1:26">
       <c r="A87" s="23">
         <v>42</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E87" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="E87" s="21" t="s">
+        <v>108</v>
+      </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="18"/>
+      <c r="J87" s="18"/>
     </row>
     <row r="88" spans="1:26">
       <c r="A88" s="23">
         <v>43</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E88" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E88" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="18"/>
+      <c r="J88" s="18"/>
     </row>
     <row r="89" spans="1:26">
       <c r="A89" s="23">
         <v>44</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C89" s="20" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E89" s="21"/>
+        <v>66</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="18"/>
+      <c r="J89" s="18"/>
     </row>
     <row r="90" spans="1:26">
       <c r="A90" s="23">
         <v>45</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C90" s="20" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E90" s="21"/>
+        <v>21</v>
+      </c>
+      <c r="E90" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="F90" s="5"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5"/>
-      <c r="N90" s="18"/>
+      <c r="J90" s="18"/>
     </row>
     <row r="91" spans="1:26">
       <c r="A91" s="23">
         <v>46</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E91" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="E91" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="18"/>
+      <c r="J91" s="18"/>
     </row>
     <row r="92" spans="1:26">
       <c r="A92" s="23">
         <v>47</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C92" s="20" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D92" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E92" s="21"/>
+        <v>107</v>
+      </c>
+      <c r="E92" s="21" t="s">
+        <v>108</v>
+      </c>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="5"/>
-      <c r="N92" s="18"/>
+      <c r="J92" s="18"/>
     </row>
     <row r="93" spans="1:26">
       <c r="A93" s="23">
         <v>48</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C93" s="20" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E93" s="21"/>
+        <v>156</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>157</v>
+      </c>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="18"/>
+      <c r="J93" s="18"/>
     </row>
     <row r="94" spans="1:26">
       <c r="A94" s="23">
         <v>49</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C94" s="20" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" s="21"/>
+        <v>21</v>
+      </c>
+      <c r="E94" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="18"/>
+      <c r="J94" s="18"/>
     </row>
     <row r="95" spans="1:26">
       <c r="A95" s="23">
         <v>50</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E95" s="21"/>
+        <v>21</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="18"/>
+      <c r="J95" s="18"/>
     </row>
     <row r="96" spans="1:26">
       <c r="A96" s="23">
         <v>51</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E96" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="18"/>
+      <c r="J96" s="18"/>
     </row>
     <row r="97" spans="1:26">
       <c r="A97" s="23">
         <v>52</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C97" s="20" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E97" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="18"/>
+      <c r="J97" s="18"/>
     </row>
     <row r="98" spans="1:26">
       <c r="A98" s="23">
         <v>53</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E98" s="21"/>
+        <v>33</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="18"/>
+      <c r="J98" s="18"/>
     </row>
     <row r="99" spans="1:26">
       <c r="A99" s="23">
         <v>54</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C99" s="20" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E99" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E99" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="18"/>
+      <c r="J99" s="18"/>
     </row>
     <row r="100" spans="1:26">
       <c r="A100" s="23">
         <v>55</v>
       </c>
       <c r="B100" s="20" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C100" s="20" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E100" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="18"/>
+      <c r="J100" s="18"/>
     </row>
     <row r="101" spans="1:26">
       <c r="A101" s="23">
         <v>56</v>
       </c>
       <c r="B101" s="20" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="E101" s="21"/>
+        <v>174</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>175</v>
+      </c>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="18"/>
+      <c r="J101" s="18"/>
     </row>
     <row r="102" spans="1:26">
       <c r="A102" s="23">
         <v>57</v>
       </c>
       <c r="B102" s="20" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E102" s="21"/>
+        <v>178</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>179</v>
+      </c>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="18"/>
+      <c r="J102" s="18"/>
     </row>
     <row r="103" spans="1:26">
       <c r="A103" s="23">
         <v>58</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C103" s="20" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D103" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E103" s="21"/>
+        <v>182</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>183</v>
+      </c>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="18"/>
+      <c r="J103" s="18"/>
     </row>
     <row r="104" spans="1:26">
       <c r="A104" s="23">
         <v>59</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C104" s="20" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D104" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E104" s="21"/>
+        <v>186</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="18"/>
+      <c r="J104" s="18"/>
     </row>
     <row r="105" spans="1:26">
       <c r="A105" s="24">
         <v>60</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="E105" s="28"/>
+        <v>190</v>
+      </c>
+      <c r="E105" s="28" t="s">
+        <v>191</v>
+      </c>
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
-      <c r="J105" s="14"/>
-      <c r="K105" s="14"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="14"/>
-      <c r="N105" s="19"/>
+      <c r="J105" s="19"/>
     </row>
     <row r="106" spans="1:26">
       <c r="A106" s="29" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B106" s="30"/>
       <c r="C106" s="30"/>
@@ -3845,64 +3684,51 @@
         <f>SUM(I86:I105)</f>
         <v>0</v>
       </c>
-      <c r="J106" s="31">
+      <c r="J106" s="32">
         <f>SUM(J86:J105)</f>
         <v>0</v>
       </c>
-      <c r="K106" s="31">
-        <f>SUM(K86:K105)</f>
-        <v>0</v>
-      </c>
-      <c r="L106" s="30"/>
-      <c r="M106" s="31">
-        <f>SUM(M86:M105)</f>
-        <v>0</v>
-      </c>
-      <c r="N106" s="32">
-        <f>SUM(N86:N105)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="107" spans="1:26">
       <c r="A107" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C107" s="38"/>
       <c r="D107" s="40"/>
       <c r="E107" s="44" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F107" s="45" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G107" s="38"/>
       <c r="H107" s="38"/>
       <c r="I107" s="38"/>
       <c r="J107" s="40"/>
       <c r="K107" s="34" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L107" s="37" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M107" s="38"/>
       <c r="N107" s="38"/>
       <c r="O107" s="40"/>
       <c r="P107" s="34" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q107" s="45" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R107" s="38"/>
       <c r="S107" s="38"/>
       <c r="T107" s="38"/>
       <c r="U107" s="40"/>
       <c r="V107" s="34" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="W107" s="38"/>
       <c r="X107" s="38"/>
@@ -3932,7 +3758,7 @@
       <c r="T108"/>
       <c r="U108" s="41"/>
       <c r="V108" s="46" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="W108"/>
       <c r="X108" s="33"/>
@@ -3962,7 +3788,7 @@
       <c r="T109"/>
       <c r="U109" s="41"/>
       <c r="V109" s="46" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="W109"/>
       <c r="X109" s="33"/>
@@ -3992,7 +3818,7 @@
       <c r="T110"/>
       <c r="U110" s="41"/>
       <c r="V110" s="46" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="W110"/>
       <c r="X110" s="33"/>
@@ -4022,7 +3848,7 @@
       <c r="T111" s="39"/>
       <c r="U111" s="42"/>
       <c r="V111" s="47" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="W111" s="39"/>
       <c r="X111" s="39"/>
@@ -4053,7 +3879,7 @@
         <v>4</v>
       </c>
       <c r="Q116" s="3" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="117" spans="1:26">
@@ -4082,13 +3908,7 @@
       <c r="G119" s="13"/>
       <c r="H119" s="13"/>
       <c r="I119" s="13"/>
-      <c r="J119" s="13"/>
-      <c r="K119" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L119" s="13"/>
-      <c r="M119" s="13"/>
-      <c r="N119" s="16"/>
+      <c r="J119" s="16"/>
     </row>
     <row r="120" spans="1:26">
       <c r="A120" s="9"/>
@@ -4096,24 +3916,16 @@
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F120" s="5"/>
       <c r="G120" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
-      <c r="J120" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K120" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L120" s="5"/>
-      <c r="M120" s="5"/>
-      <c r="N120" s="17" t="s">
-        <v>17</v>
+      <c r="J120" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:26">
@@ -4124,21 +3936,13 @@
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I121" s="5"/>
-      <c r="J121" s="5"/>
-      <c r="K121" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L121" s="5"/>
-      <c r="M121" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N121" s="18"/>
+      <c r="J121" s="18"/>
     </row>
     <row r="122" spans="1:26">
       <c r="A122" s="10"/>
@@ -4149,170 +3953,154 @@
       <c r="F122" s="14"/>
       <c r="G122" s="14"/>
       <c r="H122" s="15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I122" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J122" s="14"/>
-      <c r="K122" s="14"/>
-      <c r="L122" s="14"/>
-      <c r="M122" s="14"/>
-      <c r="N122" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="J122" s="19"/>
     </row>
     <row r="123" spans="1:26">
       <c r="A123" s="22">
         <v>61</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="E123" s="26"/>
+        <v>196</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>197</v>
+      </c>
       <c r="F123" s="13"/>
       <c r="G123" s="13"/>
       <c r="H123" s="13"/>
       <c r="I123" s="13"/>
-      <c r="J123" s="13"/>
-      <c r="K123" s="13"/>
-      <c r="L123" s="13"/>
-      <c r="M123" s="13"/>
-      <c r="N123" s="16"/>
+      <c r="J123" s="16"/>
     </row>
     <row r="124" spans="1:26">
       <c r="A124" s="23">
         <v>62</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="D124" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="E124" s="21"/>
+        <v>200</v>
+      </c>
+      <c r="E124" s="21" t="s">
+        <v>201</v>
+      </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
-      <c r="J124" s="5"/>
-      <c r="K124" s="5"/>
-      <c r="L124" s="5"/>
-      <c r="M124" s="5"/>
-      <c r="N124" s="18"/>
+      <c r="J124" s="18"/>
     </row>
     <row r="125" spans="1:26">
       <c r="A125" s="23">
         <v>63</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C125" s="20" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D125" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E125" s="21"/>
+        <v>204</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>205</v>
+      </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
-      <c r="J125" s="5"/>
-      <c r="K125" s="5"/>
-      <c r="L125" s="5"/>
-      <c r="M125" s="5"/>
-      <c r="N125" s="18"/>
+      <c r="J125" s="18"/>
     </row>
     <row r="126" spans="1:26">
       <c r="A126" s="23">
         <v>64</v>
       </c>
       <c r="B126" s="20" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C126" s="20" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="D126" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="E126" s="21"/>
+        <v>208</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
-      <c r="N126" s="18"/>
+      <c r="J126" s="18"/>
     </row>
     <row r="127" spans="1:26">
       <c r="A127" s="23">
         <v>65</v>
       </c>
       <c r="B127" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D127" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E127" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="C127" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="D127" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="E127" s="21"/>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
-      <c r="L127" s="5"/>
-      <c r="M127" s="5"/>
-      <c r="N127" s="18"/>
+      <c r="J127" s="18"/>
     </row>
     <row r="128" spans="1:26">
       <c r="A128" s="23">
         <v>66</v>
       </c>
       <c r="B128" s="20" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C128" s="20" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E128" s="21"/>
+        <v>186</v>
+      </c>
+      <c r="E128" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
-      <c r="L128" s="5"/>
-      <c r="M128" s="5"/>
-      <c r="N128" s="18"/>
+      <c r="J128" s="18"/>
     </row>
     <row r="129" spans="1:26">
       <c r="A129" s="23">
         <v>67</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="C129" s="20" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="D129" s="20"/>
       <c r="E129" s="21"/>
@@ -4320,327 +4108,297 @@
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
-      <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
-      <c r="L129" s="5"/>
-      <c r="M129" s="5"/>
-      <c r="N129" s="18"/>
+      <c r="J129" s="18"/>
     </row>
     <row r="130" spans="1:26">
       <c r="A130" s="23">
         <v>68</v>
       </c>
       <c r="B130" s="20" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="C130" s="20" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E130" s="21"/>
+        <v>186</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="5"/>
-      <c r="N130" s="18"/>
+      <c r="J130" s="18"/>
     </row>
     <row r="131" spans="1:26">
       <c r="A131" s="23">
         <v>69</v>
       </c>
       <c r="B131" s="20" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C131" s="20" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E131" s="21"/>
+        <v>219</v>
+      </c>
+      <c r="E131" s="21" t="s">
+        <v>220</v>
+      </c>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
-      <c r="J131" s="5"/>
-      <c r="K131" s="5"/>
-      <c r="L131" s="5"/>
-      <c r="M131" s="5"/>
-      <c r="N131" s="18"/>
+      <c r="J131" s="18"/>
     </row>
     <row r="132" spans="1:26">
       <c r="A132" s="23">
         <v>70</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="C132" s="20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="E132" s="21"/>
+        <v>223</v>
+      </c>
+      <c r="E132" s="21" t="s">
+        <v>205</v>
+      </c>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
-      <c r="J132" s="5"/>
-      <c r="K132" s="5"/>
-      <c r="L132" s="5"/>
-      <c r="M132" s="5"/>
-      <c r="N132" s="18"/>
+      <c r="J132" s="18"/>
     </row>
     <row r="133" spans="1:26">
       <c r="A133" s="23">
         <v>71</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="C133" s="20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="E133" s="21"/>
+        <v>186</v>
+      </c>
+      <c r="E133" s="21" t="s">
+        <v>187</v>
+      </c>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
-      <c r="J133" s="5"/>
-      <c r="K133" s="5"/>
-      <c r="L133" s="5"/>
-      <c r="M133" s="5"/>
-      <c r="N133" s="18"/>
+      <c r="J133" s="18"/>
     </row>
     <row r="134" spans="1:26">
       <c r="A134" s="23">
         <v>72</v>
       </c>
       <c r="B134" s="20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="C134" s="20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E134" s="21"/>
+        <v>228</v>
+      </c>
+      <c r="E134" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
-      <c r="J134" s="5"/>
-      <c r="K134" s="5"/>
-      <c r="L134" s="5"/>
-      <c r="M134" s="5"/>
-      <c r="N134" s="18"/>
+      <c r="J134" s="18"/>
     </row>
     <row r="135" spans="1:26">
       <c r="A135" s="23">
         <v>73</v>
       </c>
       <c r="B135" s="20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="C135" s="20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="E135" s="21"/>
+        <v>231</v>
+      </c>
+      <c r="E135" s="21" t="s">
+        <v>70</v>
+      </c>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
-      <c r="K135" s="5"/>
-      <c r="L135" s="5"/>
-      <c r="M135" s="5"/>
-      <c r="N135" s="18"/>
+      <c r="J135" s="18"/>
     </row>
     <row r="136" spans="1:26">
       <c r="A136" s="23">
         <v>74</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C136" s="20" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="E136" s="21"/>
+        <v>234</v>
+      </c>
+      <c r="E136" s="21" t="s">
+        <v>235</v>
+      </c>
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
-      <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="5"/>
-      <c r="N136" s="18"/>
+      <c r="J136" s="18"/>
     </row>
     <row r="137" spans="1:26">
       <c r="A137" s="23">
         <v>75</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="C137" s="20" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="E137" s="21"/>
+        <v>234</v>
+      </c>
+      <c r="E137" s="21" t="s">
+        <v>235</v>
+      </c>
       <c r="F137" s="5"/>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
-      <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
-      <c r="L137" s="5"/>
-      <c r="M137" s="5"/>
-      <c r="N137" s="18"/>
+      <c r="J137" s="18"/>
     </row>
     <row r="138" spans="1:26">
       <c r="A138" s="23">
         <v>76</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="C138" s="20" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="E138" s="21"/>
+        <v>234</v>
+      </c>
+      <c r="E138" s="21" t="s">
+        <v>240</v>
+      </c>
       <c r="F138" s="5"/>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
-      <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
-      <c r="L138" s="5"/>
-      <c r="M138" s="5"/>
-      <c r="N138" s="18"/>
+      <c r="J138" s="18"/>
     </row>
     <row r="139" spans="1:26">
       <c r="A139" s="23">
         <v>77</v>
       </c>
       <c r="B139" s="20" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="C139" s="20" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="D139" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="E139" s="21"/>
+        <v>196</v>
+      </c>
+      <c r="E139" s="21" t="s">
+        <v>197</v>
+      </c>
       <c r="F139" s="5"/>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
-      <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
-      <c r="L139" s="5"/>
-      <c r="M139" s="5"/>
-      <c r="N139" s="18"/>
+      <c r="J139" s="18"/>
     </row>
     <row r="140" spans="1:26">
       <c r="A140" s="23">
         <v>78</v>
       </c>
       <c r="B140" s="20" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="C140" s="20" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="D140" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="E140" s="21"/>
+        <v>245</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
-      <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="5"/>
-      <c r="N140" s="18"/>
+      <c r="J140" s="18"/>
     </row>
     <row r="141" spans="1:26">
       <c r="A141" s="23">
         <v>79</v>
       </c>
       <c r="B141" s="20" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="C141" s="20" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="D141" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="E141" s="21"/>
+        <v>178</v>
+      </c>
+      <c r="E141" s="21" t="s">
+        <v>179</v>
+      </c>
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
-      <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="18"/>
+      <c r="J141" s="18"/>
     </row>
     <row r="142" spans="1:26">
       <c r="A142" s="24">
         <v>80</v>
       </c>
       <c r="B142" s="27" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="C142" s="27" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="D142" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E142" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E142" s="28" t="s">
+        <v>113</v>
+      </c>
       <c r="F142" s="14"/>
       <c r="G142" s="14"/>
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
-      <c r="J142" s="14"/>
-      <c r="K142" s="14"/>
-      <c r="L142" s="14"/>
-      <c r="M142" s="14"/>
-      <c r="N142" s="19"/>
+      <c r="J142" s="19"/>
     </row>
     <row r="143" spans="1:26">
       <c r="A143" s="29" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="B143" s="30"/>
       <c r="C143" s="30"/>
@@ -4662,64 +4420,51 @@
         <f>SUM(I123:I142)</f>
         <v>0</v>
       </c>
-      <c r="J143" s="31">
+      <c r="J143" s="32">
         <f>SUM(J123:J142)</f>
         <v>0</v>
       </c>
-      <c r="K143" s="31">
-        <f>SUM(K123:K142)</f>
-        <v>0</v>
-      </c>
-      <c r="L143" s="30"/>
-      <c r="M143" s="31">
-        <f>SUM(M123:M142)</f>
-        <v>0</v>
-      </c>
-      <c r="N143" s="32">
-        <f>SUM(N123:N142)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="144" spans="1:26">
       <c r="A144" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B144" s="43" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C144" s="38"/>
       <c r="D144" s="40"/>
       <c r="E144" s="44" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F144" s="45" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G144" s="38"/>
       <c r="H144" s="38"/>
       <c r="I144" s="38"/>
       <c r="J144" s="40"/>
       <c r="K144" s="34" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L144" s="37" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M144" s="38"/>
       <c r="N144" s="38"/>
       <c r="O144" s="40"/>
       <c r="P144" s="34" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q144" s="45" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R144" s="38"/>
       <c r="S144" s="38"/>
       <c r="T144" s="38"/>
       <c r="U144" s="40"/>
       <c r="V144" s="34" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="W144" s="38"/>
       <c r="X144" s="38"/>
@@ -4749,7 +4494,7 @@
       <c r="T145"/>
       <c r="U145" s="41"/>
       <c r="V145" s="46" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="W145"/>
       <c r="X145" s="33"/>
@@ -4779,7 +4524,7 @@
       <c r="T146"/>
       <c r="U146" s="41"/>
       <c r="V146" s="46" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="W146"/>
       <c r="X146" s="33"/>
@@ -4809,7 +4554,7 @@
       <c r="T147"/>
       <c r="U147" s="41"/>
       <c r="V147" s="46" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="W147"/>
       <c r="X147" s="33"/>
@@ -4839,7 +4584,7 @@
       <c r="T148" s="39"/>
       <c r="U148" s="42"/>
       <c r="V148" s="47" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="W148" s="39"/>
       <c r="X148" s="39"/>
@@ -4870,7 +4615,7 @@
         <v>4</v>
       </c>
       <c r="Q153" s="3" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="154" spans="1:26">
@@ -4899,13 +4644,7 @@
       <c r="G156" s="13"/>
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
-      <c r="J156" s="13"/>
-      <c r="K156" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L156" s="13"/>
-      <c r="M156" s="13"/>
-      <c r="N156" s="16"/>
+      <c r="J156" s="16"/>
     </row>
     <row r="157" spans="1:26">
       <c r="A157" s="9"/>
@@ -4913,24 +4652,16 @@
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
-      <c r="J157" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K157" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L157" s="5"/>
-      <c r="M157" s="5"/>
-      <c r="N157" s="17" t="s">
-        <v>17</v>
+      <c r="J157" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:26">
@@ -4941,21 +4672,13 @@
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
       <c r="G158" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I158" s="5"/>
-      <c r="J158" s="5"/>
-      <c r="K158" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L158" s="5"/>
-      <c r="M158" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N158" s="18"/>
+      <c r="J158" s="18"/>
     </row>
     <row r="159" spans="1:26">
       <c r="A159" s="10"/>
@@ -4966,332 +4689,302 @@
       <c r="F159" s="14"/>
       <c r="G159" s="14"/>
       <c r="H159" s="15" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I159" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J159" s="14"/>
-      <c r="K159" s="14"/>
-      <c r="L159" s="14"/>
-      <c r="M159" s="14"/>
-      <c r="N159" s="19"/>
+        <v>18</v>
+      </c>
+      <c r="J159" s="19"/>
     </row>
     <row r="160" spans="1:26">
       <c r="A160" s="22">
         <v>81</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="C160" s="25" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="D160" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E160" s="26"/>
+        <v>29</v>
+      </c>
+      <c r="E160" s="26" t="s">
+        <v>113</v>
+      </c>
       <c r="F160" s="13"/>
       <c r="G160" s="13"/>
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
-      <c r="J160" s="13"/>
-      <c r="K160" s="13"/>
-      <c r="L160" s="13"/>
-      <c r="M160" s="13"/>
-      <c r="N160" s="16"/>
+      <c r="J160" s="16"/>
     </row>
     <row r="161" spans="1:26">
       <c r="A161" s="23">
         <v>82</v>
       </c>
       <c r="B161" s="20" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="C161" s="20" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E161" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E161" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="F161" s="5"/>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
-      <c r="J161" s="5"/>
-      <c r="K161" s="5"/>
-      <c r="L161" s="5"/>
-      <c r="M161" s="5"/>
-      <c r="N161" s="18"/>
+      <c r="J161" s="18"/>
     </row>
     <row r="162" spans="1:26">
       <c r="A162" s="23">
         <v>83</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="D162" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E162" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E162" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
-      <c r="J162" s="5"/>
-      <c r="K162" s="5"/>
-      <c r="L162" s="5"/>
-      <c r="M162" s="5"/>
-      <c r="N162" s="18"/>
+      <c r="J162" s="18"/>
     </row>
     <row r="163" spans="1:26">
       <c r="A163" s="23">
         <v>84</v>
       </c>
       <c r="B163" s="20" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="C163" s="20" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="D163" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E163" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E163" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="F163" s="5"/>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
-      <c r="J163" s="5"/>
-      <c r="K163" s="5"/>
-      <c r="L163" s="5"/>
-      <c r="M163" s="5"/>
-      <c r="N163" s="18"/>
+      <c r="J163" s="18"/>
     </row>
     <row r="164" spans="1:26">
       <c r="A164" s="23">
         <v>85</v>
       </c>
       <c r="B164" s="20" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="C164" s="20" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E164" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E164" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="F164" s="5"/>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
-      <c r="J164" s="5"/>
-      <c r="K164" s="5"/>
-      <c r="L164" s="5"/>
-      <c r="M164" s="5"/>
-      <c r="N164" s="18"/>
+      <c r="J164" s="18"/>
     </row>
     <row r="165" spans="1:26">
       <c r="A165" s="23">
         <v>86</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C165" s="20" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E165" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E165" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="F165" s="5"/>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
-      <c r="J165" s="5"/>
-      <c r="K165" s="5"/>
-      <c r="L165" s="5"/>
-      <c r="M165" s="5"/>
-      <c r="N165" s="18"/>
+      <c r="J165" s="18"/>
     </row>
     <row r="166" spans="1:26">
       <c r="A166" s="23">
         <v>87</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="C166" s="20" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="D166" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E166" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E166" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="F166" s="5"/>
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
-      <c r="J166" s="5"/>
-      <c r="K166" s="5"/>
-      <c r="L166" s="5"/>
-      <c r="M166" s="5"/>
-      <c r="N166" s="18"/>
+      <c r="J166" s="18"/>
     </row>
     <row r="167" spans="1:26">
       <c r="A167" s="23">
         <v>88</v>
       </c>
       <c r="B167" s="20" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="C167" s="20" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E167" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E167" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
-      <c r="J167" s="5"/>
-      <c r="K167" s="5"/>
-      <c r="L167" s="5"/>
-      <c r="M167" s="5"/>
-      <c r="N167" s="18"/>
+      <c r="J167" s="18"/>
     </row>
     <row r="168" spans="1:26">
       <c r="A168" s="23">
         <v>89</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E168" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E168" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
-      <c r="J168" s="5"/>
-      <c r="K168" s="5"/>
-      <c r="L168" s="5"/>
-      <c r="M168" s="5"/>
-      <c r="N168" s="18"/>
+      <c r="J168" s="18"/>
     </row>
     <row r="169" spans="1:26">
       <c r="A169" s="23">
         <v>90</v>
       </c>
       <c r="B169" s="20" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E169" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E169" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="F169" s="5"/>
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
-      <c r="J169" s="5"/>
-      <c r="K169" s="5"/>
-      <c r="L169" s="5"/>
-      <c r="M169" s="5"/>
-      <c r="N169" s="18"/>
+      <c r="J169" s="18"/>
     </row>
     <row r="170" spans="1:26">
       <c r="A170" s="23">
         <v>91</v>
       </c>
       <c r="B170" s="20" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="C170" s="20" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E170" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E170" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="F170" s="5"/>
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
-      <c r="J170" s="5"/>
-      <c r="K170" s="5"/>
-      <c r="L170" s="5"/>
-      <c r="M170" s="5"/>
-      <c r="N170" s="18"/>
+      <c r="J170" s="18"/>
     </row>
     <row r="171" spans="1:26">
       <c r="A171" s="23">
         <v>92</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C171" s="20" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D171" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E171" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="E171" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="F171" s="5"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
-      <c r="J171" s="5"/>
-      <c r="K171" s="5"/>
-      <c r="L171" s="5"/>
-      <c r="M171" s="5"/>
-      <c r="N171" s="18"/>
+      <c r="J171" s="18"/>
     </row>
     <row r="172" spans="1:26">
       <c r="A172" s="24">
         <v>93</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="C172" s="27" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="D172" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E172" s="28"/>
+        <v>29</v>
+      </c>
+      <c r="E172" s="28" t="s">
+        <v>113</v>
+      </c>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
-      <c r="J172" s="14"/>
-      <c r="K172" s="14"/>
-      <c r="L172" s="14"/>
-      <c r="M172" s="14"/>
-      <c r="N172" s="19"/>
+      <c r="J172" s="19"/>
     </row>
     <row r="173" spans="1:26">
       <c r="A173" s="29" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="B173" s="30"/>
       <c r="C173" s="30"/>
@@ -5313,27 +5006,14 @@
         <f>SUM(I160:I172)</f>
         <v>0</v>
       </c>
-      <c r="J173" s="31">
+      <c r="J173" s="32">
         <f>SUM(J160:J172)</f>
         <v>0</v>
       </c>
-      <c r="K173" s="31">
-        <f>SUM(K160:K172)</f>
-        <v>0</v>
-      </c>
-      <c r="L173" s="30"/>
-      <c r="M173" s="31">
-        <f>SUM(M160:M172)</f>
-        <v>0</v>
-      </c>
-      <c r="N173" s="32">
-        <f>SUM(N160:N172)</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="174" spans="1:26">
       <c r="A174" s="29" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="B174" s="30"/>
       <c r="C174" s="30"/>
@@ -5355,64 +5035,51 @@
         <f>I32+I69+I106+I143+I173</f>
         <v>0</v>
       </c>
-      <c r="J174" s="31">
+      <c r="J174" s="32">
         <f>J32+J69+J106+J143+J173</f>
         <v>0</v>
       </c>
-      <c r="K174" s="31">
-        <f>K32+K69+K106+K143+K173</f>
-        <v>0</v>
-      </c>
-      <c r="L174" s="30"/>
-      <c r="M174" s="31">
-        <f>M32+M69+M106+M143+M173</f>
-        <v>0</v>
-      </c>
-      <c r="N174" s="32">
-        <f>N32+N69+N106+N143+N173</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="175" spans="1:26">
       <c r="A175" s="34" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B175" s="43" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C175" s="38"/>
       <c r="D175" s="40"/>
       <c r="E175" s="44" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F175" s="45" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G175" s="38"/>
       <c r="H175" s="38"/>
       <c r="I175" s="38"/>
       <c r="J175" s="40"/>
       <c r="K175" s="34" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L175" s="37" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M175" s="38"/>
       <c r="N175" s="38"/>
       <c r="O175" s="40"/>
       <c r="P175" s="34" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q175" s="45" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R175" s="38"/>
       <c r="S175" s="38"/>
       <c r="T175" s="38"/>
       <c r="U175" s="40"/>
       <c r="V175" s="34" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="W175" s="38"/>
       <c r="X175" s="38"/>
@@ -5442,7 +5109,7 @@
       <c r="T176"/>
       <c r="U176" s="41"/>
       <c r="V176" s="46" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="W176"/>
       <c r="X176" s="33"/>
@@ -5472,7 +5139,7 @@
       <c r="T177"/>
       <c r="U177" s="41"/>
       <c r="V177" s="46" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="W177"/>
       <c r="X177" s="33"/>
@@ -5502,7 +5169,7 @@
       <c r="T178"/>
       <c r="U178" s="41"/>
       <c r="V178" s="46" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="W178"/>
       <c r="X178" s="33"/>
@@ -5532,7 +5199,7 @@
       <c r="T179" s="39"/>
       <c r="U179" s="42"/>
       <c r="V179" s="47" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="W179" s="39"/>
       <c r="X179" s="39"/>
@@ -5561,11 +5228,6 @@
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="J9:J11"/>
     <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="K8:N8"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -5592,9 +5254,6 @@
     <mergeCell ref="H32:H32"/>
     <mergeCell ref="I32:I32"/>
     <mergeCell ref="J32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:M32"/>
-    <mergeCell ref="N32:N32"/>
     <mergeCell ref="B33:D34"/>
     <mergeCell ref="F33:J34"/>
     <mergeCell ref="L33:O34"/>
@@ -5622,11 +5281,6 @@
     <mergeCell ref="G46:I46"/>
     <mergeCell ref="J46:J48"/>
     <mergeCell ref="E45:J45"/>
-    <mergeCell ref="K47:L48"/>
-    <mergeCell ref="M47:M48"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:N48"/>
-    <mergeCell ref="K45:N45"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E50:F50"/>
     <mergeCell ref="E51:F51"/>
@@ -5653,9 +5307,6 @@
     <mergeCell ref="H69:H69"/>
     <mergeCell ref="I69:I69"/>
     <mergeCell ref="J69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="M69:M69"/>
-    <mergeCell ref="N69:N69"/>
     <mergeCell ref="B70:D71"/>
     <mergeCell ref="F70:J71"/>
     <mergeCell ref="L70:O71"/>
@@ -5683,11 +5334,6 @@
     <mergeCell ref="G83:I83"/>
     <mergeCell ref="J83:J85"/>
     <mergeCell ref="E82:J82"/>
-    <mergeCell ref="K84:L85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:N85"/>
-    <mergeCell ref="K82:N82"/>
     <mergeCell ref="E86:F86"/>
     <mergeCell ref="E87:F87"/>
     <mergeCell ref="E88:F88"/>
@@ -5714,9 +5360,6 @@
     <mergeCell ref="H106:H106"/>
     <mergeCell ref="I106:I106"/>
     <mergeCell ref="J106:J106"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="M106:M106"/>
-    <mergeCell ref="N106:N106"/>
     <mergeCell ref="B107:D108"/>
     <mergeCell ref="F107:J108"/>
     <mergeCell ref="L107:O108"/>
@@ -5744,11 +5387,6 @@
     <mergeCell ref="G120:I120"/>
     <mergeCell ref="J120:J122"/>
     <mergeCell ref="E119:J119"/>
-    <mergeCell ref="K121:L122"/>
-    <mergeCell ref="M121:M122"/>
-    <mergeCell ref="K120:M120"/>
-    <mergeCell ref="N120:N122"/>
-    <mergeCell ref="K119:N119"/>
     <mergeCell ref="E123:F123"/>
     <mergeCell ref="E124:F124"/>
     <mergeCell ref="E125:F125"/>
@@ -5775,9 +5413,6 @@
     <mergeCell ref="H143:H143"/>
     <mergeCell ref="I143:I143"/>
     <mergeCell ref="J143:J143"/>
-    <mergeCell ref="K143:L143"/>
-    <mergeCell ref="M143:M143"/>
-    <mergeCell ref="N143:N143"/>
     <mergeCell ref="B144:D145"/>
     <mergeCell ref="F144:J145"/>
     <mergeCell ref="L144:O145"/>
@@ -5805,11 +5440,6 @@
     <mergeCell ref="G157:I157"/>
     <mergeCell ref="J157:J159"/>
     <mergeCell ref="E156:J156"/>
-    <mergeCell ref="K158:L159"/>
-    <mergeCell ref="M158:M159"/>
-    <mergeCell ref="K157:M157"/>
-    <mergeCell ref="N157:N159"/>
-    <mergeCell ref="K156:N156"/>
     <mergeCell ref="E160:F160"/>
     <mergeCell ref="E161:F161"/>
     <mergeCell ref="E162:F162"/>
@@ -5829,18 +5459,12 @@
     <mergeCell ref="H173:H173"/>
     <mergeCell ref="I173:I173"/>
     <mergeCell ref="J173:J173"/>
-    <mergeCell ref="K173:L173"/>
-    <mergeCell ref="M173:M173"/>
-    <mergeCell ref="N173:N173"/>
     <mergeCell ref="A174:D174"/>
     <mergeCell ref="E174:F174"/>
     <mergeCell ref="G174:G174"/>
     <mergeCell ref="H174:H174"/>
     <mergeCell ref="I174:I174"/>
     <mergeCell ref="J174:J174"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="M174:M174"/>
-    <mergeCell ref="N174:N174"/>
     <mergeCell ref="B175:D176"/>
     <mergeCell ref="F175:J176"/>
     <mergeCell ref="L175:O176"/>
